--- a/assets/sample_metadata/varv_test_metadata.xlsx
+++ b/assets/sample_metadata/varv_test_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyoconnell/Desktop/tostadas/assets/sample_metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ick4\Downloads\sample_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C65A5DC-9906-3A4D-8075-533E815A1040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8376F51F-F782-4DCD-9403-EA3C9C60D8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VARV_Metadata" sheetId="9" r:id="rId1"/>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{F70BA5C7-C026-4470-BB45-6E3CE66DF205}">
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{F70BA5C7-C026-4470-BB45-6E3CE66DF205}">
       <text>
         <r>
           <rPr>
@@ -105,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{21D5B7CA-0371-4BC6-B974-6581ECC36D9D}">
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{21D5B7CA-0371-4BC6-B974-6581ECC36D9D}">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{E07D66A0-9136-47C2-89F5-CAA6B0BF44F2}">
+    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{E07D66A0-9136-47C2-89F5-CAA6B0BF44F2}">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{AA27E836-F0DC-4760-9FEC-7B015070C3D9}">
+    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{AA27E836-F0DC-4760-9FEC-7B015070C3D9}">
       <text>
         <r>
           <rPr>
@@ -146,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{479975C4-9E7A-4A5E-BEC1-50C2BE1BA0B0}">
+    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{479975C4-9E7A-4A5E-BEC1-50C2BE1BA0B0}">
       <text>
         <r>
           <rPr>
@@ -159,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{85C6D79F-61C1-4D9E-98DF-35AB4E6A7ED3}">
+    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{85C6D79F-61C1-4D9E-98DF-35AB4E6A7ED3}">
       <text>
         <r>
           <rPr>
@@ -173,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{071785E7-56D9-4E87-B448-25FBCBCA0295}">
+    <comment ref="O5" authorId="0" shapeId="0" xr:uid="{071785E7-56D9-4E87-B448-25FBCBCA0295}">
       <text>
         <r>
           <rPr>
@@ -187,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{C3ED37C4-4FEC-41D0-9DBD-572EFB063300}">
+    <comment ref="P5" authorId="0" shapeId="0" xr:uid="{C3ED37C4-4FEC-41D0-9DBD-572EFB063300}">
       <text>
         <r>
           <rPr>
@@ -201,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O5" authorId="1" shapeId="0" xr:uid="{1EA2E6DE-8DE4-4B70-95A1-76B6F1DEBDF2}">
+    <comment ref="Q5" authorId="1" shapeId="0" xr:uid="{1EA2E6DE-8DE4-4B70-95A1-76B6F1DEBDF2}">
       <text>
         <r>
           <rPr>
@@ -215,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P5" authorId="0" shapeId="0" xr:uid="{D1FAF6B3-857C-41E2-9566-DBF0E60FF405}">
+    <comment ref="R5" authorId="0" shapeId="0" xr:uid="{D1FAF6B3-857C-41E2-9566-DBF0E60FF405}">
       <text>
         <r>
           <rPr>
@@ -229,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q5" authorId="1" shapeId="0" xr:uid="{6949FFB1-4FEB-42A2-A1D2-6EE3C2E2305C}">
+    <comment ref="S5" authorId="1" shapeId="0" xr:uid="{6949FFB1-4FEB-42A2-A1D2-6EE3C2E2305C}">
       <text>
         <r>
           <rPr>
@@ -243,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R5" authorId="1" shapeId="0" xr:uid="{FD378DB2-0BE6-410E-AEDB-F3A8DD679F80}">
+    <comment ref="T5" authorId="1" shapeId="0" xr:uid="{FD378DB2-0BE6-410E-AEDB-F3A8DD679F80}">
       <text>
         <r>
           <rPr>
@@ -258,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S5" authorId="1" shapeId="0" xr:uid="{2A019EB1-E062-45F8-B1CF-FB3255D8F3A8}">
+    <comment ref="U5" authorId="1" shapeId="0" xr:uid="{2A019EB1-E062-45F8-B1CF-FB3255D8F3A8}">
       <text>
         <r>
           <rPr>
@@ -272,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T5" authorId="0" shapeId="0" xr:uid="{4D7E8B39-EC3F-477C-9B4B-E13E0BA7AE43}">
+    <comment ref="V5" authorId="0" shapeId="0" xr:uid="{4D7E8B39-EC3F-477C-9B4B-E13E0BA7AE43}">
       <text>
         <r>
           <rPr>
@@ -285,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U5" authorId="0" shapeId="0" xr:uid="{BD5075ED-65F9-4D40-8419-E5756430BB70}">
+    <comment ref="W5" authorId="0" shapeId="0" xr:uid="{BD5075ED-65F9-4D40-8419-E5756430BB70}">
       <text>
         <r>
           <rPr>
@@ -298,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V5" authorId="1" shapeId="0" xr:uid="{3FE19B70-E33C-4212-AC6C-D1BDECEA7101}">
+    <comment ref="X5" authorId="1" shapeId="0" xr:uid="{3FE19B70-E33C-4212-AC6C-D1BDECEA7101}">
       <text>
         <r>
           <rPr>
@@ -311,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W5" authorId="0" shapeId="0" xr:uid="{EB946458-60DD-4E13-87AF-AA7A20D64262}">
+    <comment ref="Y5" authorId="0" shapeId="0" xr:uid="{EB946458-60DD-4E13-87AF-AA7A20D64262}">
       <text>
         <r>
           <rPr>
@@ -324,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X5" authorId="1" shapeId="0" xr:uid="{331CD19D-1C0D-46F9-9E0E-B800949A9D80}">
+    <comment ref="Z5" authorId="1" shapeId="0" xr:uid="{331CD19D-1C0D-46F9-9E0E-B800949A9D80}">
       <text>
         <r>
           <rPr>
@@ -338,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y5" authorId="0" shapeId="0" xr:uid="{DAF6A12C-64AB-4116-B4E1-F76FF76179A2}">
+    <comment ref="AA5" authorId="0" shapeId="0" xr:uid="{DAF6A12C-64AB-4116-B4E1-F76FF76179A2}">
       <text>
         <r>
           <rPr>
@@ -351,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z5" authorId="0" shapeId="0" xr:uid="{0A3D1826-42B6-40FA-8AB0-C855DB3FAEFC}">
+    <comment ref="AB5" authorId="0" shapeId="0" xr:uid="{0A3D1826-42B6-40FA-8AB0-C855DB3FAEFC}">
       <text>
         <r>
           <rPr>
@@ -364,7 +364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA5" authorId="0" shapeId="0" xr:uid="{B0BB772A-E4A7-4A85-AE1B-76B0AD3016B6}">
+    <comment ref="AC5" authorId="0" shapeId="0" xr:uid="{B0BB772A-E4A7-4A85-AE1B-76B0AD3016B6}">
       <text>
         <r>
           <rPr>
@@ -377,7 +377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB5" authorId="0" shapeId="0" xr:uid="{F9F1CD31-2220-4301-BF9D-28371B6EB082}">
+    <comment ref="AD5" authorId="0" shapeId="0" xr:uid="{F9F1CD31-2220-4301-BF9D-28371B6EB082}">
       <text>
         <r>
           <rPr>
@@ -390,7 +390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC5" authorId="1" shapeId="0" xr:uid="{EB388CCC-2DFF-497E-812C-0E7BE6B0319E}">
+    <comment ref="AE5" authorId="1" shapeId="0" xr:uid="{EB388CCC-2DFF-497E-812C-0E7BE6B0319E}">
       <text>
         <r>
           <rPr>
@@ -404,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD5" authorId="1" shapeId="0" xr:uid="{AC465281-B22D-4402-AAD5-D3BEC15677DC}">
+    <comment ref="AF5" authorId="1" shapeId="0" xr:uid="{AC465281-B22D-4402-AAD5-D3BEC15677DC}">
       <text>
         <r>
           <rPr>
@@ -437,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF5" authorId="1" shapeId="0" xr:uid="{F79A8E9C-C804-4281-A6FE-04B94CE39270}">
+    <comment ref="AH5" authorId="1" shapeId="0" xr:uid="{F79A8E9C-C804-4281-A6FE-04B94CE39270}">
       <text>
         <r>
           <rPr>
@@ -469,7 +469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG5" authorId="1" shapeId="0" xr:uid="{17F66995-0056-4686-B6E7-2818CDBED7DC}">
+    <comment ref="AI5" authorId="1" shapeId="0" xr:uid="{17F66995-0056-4686-B6E7-2818CDBED7DC}">
       <text>
         <r>
           <rPr>
@@ -482,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH5" authorId="0" shapeId="0" xr:uid="{7F125DDB-EAB4-404B-9CC8-CBAC41720E17}">
+    <comment ref="AJ5" authorId="0" shapeId="0" xr:uid="{7F125DDB-EAB4-404B-9CC8-CBAC41720E17}">
       <text>
         <r>
           <rPr>
@@ -505,7 +505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI5" authorId="0" shapeId="0" xr:uid="{C96D2C59-64DB-4600-A1C6-8E20EF9D4281}">
+    <comment ref="AK5" authorId="0" shapeId="0" xr:uid="{C96D2C59-64DB-4600-A1C6-8E20EF9D4281}">
       <text>
         <r>
           <rPr>
@@ -518,7 +518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ5" authorId="0" shapeId="0" xr:uid="{3AF859AE-40D4-43E5-9108-21B3B4D25308}">
+    <comment ref="AL5" authorId="0" shapeId="0" xr:uid="{3AF859AE-40D4-43E5-9108-21B3B4D25308}">
       <text>
         <r>
           <rPr>
@@ -531,7 +531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK5" authorId="0" shapeId="0" xr:uid="{3F56533D-8B5C-4B40-9B83-65A1EC85E6CF}">
+    <comment ref="AM5" authorId="0" shapeId="0" xr:uid="{3F56533D-8B5C-4B40-9B83-65A1EC85E6CF}">
       <text>
         <r>
           <rPr>
@@ -544,7 +544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL5" authorId="1" shapeId="0" xr:uid="{570053E9-DD91-491F-B7BD-CF22A33BFAF8}">
+    <comment ref="AN5" authorId="1" shapeId="0" xr:uid="{570053E9-DD91-491F-B7BD-CF22A33BFAF8}">
       <text>
         <r>
           <rPr>
@@ -558,7 +558,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM5" authorId="1" shapeId="0" xr:uid="{A68E7A56-1370-4015-A613-369D3367675B}">
+    <comment ref="AO5" authorId="1" shapeId="0" xr:uid="{A68E7A56-1370-4015-A613-369D3367675B}">
       <text>
         <r>
           <rPr>
@@ -2862,7 +2862,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="414">
   <si>
     <t>*sample_name</t>
   </si>
@@ -3977,9 +3977,6 @@
     <t>sample_name</t>
   </si>
   <si>
-    <t>author</t>
-  </si>
-  <si>
     <t>isolate</t>
   </si>
   <si>
@@ -4095,6 +4092,18 @@
   </si>
   <si>
     <t>assets/sample_fastqs/variola/PP405578_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>This submission is part of a test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Variola virus </t>
+  </si>
+  <si>
+    <t>authors</t>
   </si>
 </sst>
 </file>
@@ -4104,7 +4113,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4967,9 +4976,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5007,7 +5016,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5113,7 +5122,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5255,7 +5264,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5326,356 +5335,489 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED69788A-8BB8-4090-9E16-DE7573DAAD2C}">
-  <dimension ref="A1:AZ7"/>
+  <dimension ref="A1:BB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AO5" sqref="AO5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="41" width="27" customWidth="1"/>
+    <col min="1" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" customWidth="1"/>
+    <col min="6" max="6" width="23.453125" customWidth="1"/>
+    <col min="7" max="43" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" ht="18.75" customHeight="1">
       <c r="A1" t="s">
         <v>321</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="F1" s="37"/>
+      <c r="M1" s="36" t="s">
         <v>317</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="X1" s="36" t="s">
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="Z1" s="36" t="s">
         <v>320</v>
       </c>
-      <c r="AB1" s="36" t="s">
+      <c r="AD1" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="36" t="s">
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="36" t="s">
         <v>325</v>
       </c>
-      <c r="AG1" s="36" t="s">
+      <c r="AI1" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="AP1" s="36" t="s">
+      <c r="AR1" s="36" t="s">
         <v>324</v>
       </c>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="38"/>
       <c r="AZ1" s="38"/>
-    </row>
-    <row r="2" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="38"/>
+    </row>
+    <row r="2" spans="1:54" ht="18.75" customHeight="1">
       <c r="A2" s="39" t="s">
         <v>370</v>
       </c>
       <c r="B2" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>378</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="D2" s="39" t="s">
         <v>379</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="E2" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>413</v>
+      </c>
+      <c r="H2" s="40" t="s">
         <v>380</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="I2" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="L2" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="M2" s="41" t="s">
         <v>371</v>
       </c>
-      <c r="F2" s="40" t="s">
-        <v>381</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>382</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>384</v>
-      </c>
-      <c r="J2" s="40" t="s">
+      <c r="N2" s="40" t="s">
         <v>385</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="O2" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="P2" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q2" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="R2" s="39" t="s">
         <v>372</v>
       </c>
-      <c r="L2" s="40" t="s">
-        <v>386</v>
-      </c>
-      <c r="M2" s="40" t="s">
+      <c r="S2" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="T2" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="W2" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="X2" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y2" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB2" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC2" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD2" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE2" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF2" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG2" s="43" t="s">
+        <v>392</v>
+      </c>
+      <c r="AH2" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ2" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="AK2" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM2" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN2" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="AO2" s="39" t="s">
         <v>387</v>
       </c>
-      <c r="N2" s="39" t="s">
-        <v>375</v>
-      </c>
-      <c r="O2" s="39" t="s">
+      <c r="AP2" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR2" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS2" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="AT2" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU2" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV2" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW2" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="AX2" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ2" s="42" t="s">
+        <v>388</v>
+      </c>
+      <c r="BA2" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="BB2" s="42" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54">
+      <c r="A3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F3" t="s">
+        <v>411</v>
+      </c>
+      <c r="G3" t="s">
+        <v>397</v>
+      </c>
+      <c r="H3" t="s">
+        <v>398</v>
+      </c>
+      <c r="M3" t="s">
+        <v>393</v>
+      </c>
+      <c r="R3" t="s">
         <v>376</v>
       </c>
-      <c r="P2" s="39" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q2" s="39" t="s">
-        <v>374</v>
-      </c>
-      <c r="R2" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="T2" s="39" t="s">
-        <v>326</v>
-      </c>
-      <c r="U2" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="V2" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="W2" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="X2" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y2" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z2" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA2" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB2" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC2" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD2" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE2" s="43" t="s">
+      <c r="S3" t="s">
+        <v>399</v>
+      </c>
+      <c r="T3" t="s">
+        <v>401</v>
+      </c>
+      <c r="U3" t="s">
+        <v>368</v>
+      </c>
+      <c r="X3" t="s">
+        <v>368</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>369</v>
+      </c>
+      <c r="AF3">
+        <v>247</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>404</v>
+      </c>
+      <c r="AH3" s="35" t="s">
         <v>393</v>
       </c>
-      <c r="AF2" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH2" s="39" t="s">
-        <v>366</v>
-      </c>
-      <c r="AI2" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ2" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK2" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL2" s="39" t="s">
-        <v>318</v>
-      </c>
-      <c r="AM2" s="39" t="s">
-        <v>388</v>
-      </c>
-      <c r="AN2" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO2" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP2" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ2" s="39" t="s">
-        <v>367</v>
-      </c>
-      <c r="AR2" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="AS2" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="AT2" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU2" s="39" t="s">
-        <v>319</v>
-      </c>
-      <c r="AV2" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="AX2" s="42" t="s">
-        <v>389</v>
-      </c>
-      <c r="AY2" s="42" t="s">
-        <v>390</v>
-      </c>
-      <c r="AZ2" s="42" t="s">
+      <c r="AI3" t="s">
+        <v>310</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO3" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="AP3" t="s">
+        <v>406</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54">
+      <c r="A4" t="s">
         <v>394</v>
       </c>
-      <c r="B3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E3" t="s">
-        <v>398</v>
-      </c>
-      <c r="F3" t="s">
-        <v>399</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="B4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G4" t="s">
+        <v>402</v>
+      </c>
+      <c r="H4" t="s">
+        <v>403</v>
+      </c>
+      <c r="M4" t="s">
         <v>394</v>
       </c>
-      <c r="P3" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="R4" t="s">
+        <v>376</v>
+      </c>
+      <c r="S4" t="s">
         <v>400</v>
       </c>
-      <c r="R3" t="s">
-        <v>402</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="T4" t="s">
         <v>368</v>
       </c>
-      <c r="V3" t="s">
+      <c r="U4" t="s">
         <v>368</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="X4" t="s">
+        <v>368</v>
+      </c>
+      <c r="AD4" t="s">
         <v>369</v>
       </c>
-      <c r="AD3">
+      <c r="AF4">
         <v>247</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG4" t="s">
         <v>405</v>
       </c>
-      <c r="AF3" s="35" t="s">
+      <c r="AH4" s="35" t="s">
         <v>394</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AI4" t="s">
         <v>310</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AJ4" t="s">
         <v>58</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AK4" t="s">
         <v>59</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AL4" t="s">
         <v>60</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AM4" t="s">
         <v>61</v>
       </c>
-      <c r="AM3" t="s">
-        <v>392</v>
-      </c>
-      <c r="AN3" t="s">
+      <c r="AO4" t="s">
+        <v>391</v>
+      </c>
+      <c r="AP4" t="s">
         <v>407</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AQ4" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>395</v>
-      </c>
-      <c r="B4" t="s">
-        <v>396</v>
-      </c>
-      <c r="E4" t="s">
-        <v>403</v>
-      </c>
-      <c r="F4" t="s">
-        <v>404</v>
-      </c>
-      <c r="K4" t="s">
-        <v>395</v>
-      </c>
-      <c r="P4" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>401</v>
-      </c>
-      <c r="R4" t="s">
-        <v>368</v>
-      </c>
-      <c r="S4" t="s">
-        <v>368</v>
-      </c>
-      <c r="V4" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>369</v>
-      </c>
-      <c r="AD4">
-        <v>247</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>406</v>
-      </c>
-      <c r="AF4" s="35" t="s">
-        <v>395</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>310</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>392</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>408</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="P5" s="28"/>
-      <c r="W5" s="35"/>
-      <c r="AG5" s="28"/>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="P6" s="28"/>
-      <c r="W6" s="35"/>
-      <c r="AG6" s="28"/>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="P7" s="28"/>
-      <c r="W7" s="35"/>
-      <c r="AG7" s="28"/>
+    <row r="5" spans="1:54">
+      <c r="R5" s="28"/>
+      <c r="Y5" s="35"/>
+      <c r="AI5" s="28"/>
+    </row>
+    <row r="6" spans="1:54">
+      <c r="R6" s="28"/>
+      <c r="Y6" s="35"/>
+      <c r="AI6" s="28"/>
+    </row>
+    <row r="7" spans="1:54">
+      <c r="R7" s="28"/>
+      <c r="Y7" s="35"/>
+      <c r="AI7" s="28"/>
+    </row>
+    <row r="9" spans="1:54">
+      <c r="F9" s="37"/>
+    </row>
+    <row r="10" spans="1:54">
+      <c r="F10" s="37"/>
+    </row>
+    <row r="11" spans="1:54">
+      <c r="F11" s="37"/>
+    </row>
+    <row r="12" spans="1:54">
+      <c r="F12" s="37"/>
+    </row>
+    <row r="13" spans="1:54">
+      <c r="F13" s="37"/>
+    </row>
+    <row r="14" spans="1:54">
+      <c r="F14" s="37"/>
+    </row>
+    <row r="15" spans="1:54">
+      <c r="F15" s="37"/>
+    </row>
+    <row r="16" spans="1:54">
+      <c r="F16" s="37"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="37"/>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="37"/>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="37"/>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="37"/>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="37"/>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" s="37"/>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23" s="37"/>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24" s="37"/>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25" s="37"/>
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26" s="37"/>
+    </row>
+    <row r="27" spans="6:6">
+      <c r="F27" s="37"/>
+    </row>
+    <row r="28" spans="6:6">
+      <c r="F28" s="37"/>
+    </row>
+    <row r="29" spans="6:6">
+      <c r="F29" s="37"/>
+    </row>
+    <row r="30" spans="6:6">
+      <c r="F30" s="37"/>
+    </row>
+    <row r="31" spans="6:6">
+      <c r="F31" s="37"/>
+    </row>
+    <row r="32" spans="6:6">
+      <c r="F32" s="37"/>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="37"/>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" s="37"/>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" s="37"/>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="37"/>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="37"/>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" s="37"/>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39" s="37"/>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="37"/>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="37"/>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" s="37"/>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="37"/>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="37"/>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" s="37"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK6:AK7 AB6:AB7 AK3:AK4" xr:uid="{E94CD281-9EAA-4F57-AE0B-4DBF756B8F3B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM7 AD6:AD7 AM3:AM4" xr:uid="{E94CD281-9EAA-4F57-AE0B-4DBF756B8F3B}">
       <formula1>"single,paired"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5688,31 +5830,31 @@
           <x14:formula1>
             <xm:f>'Library and Platform Names'!$J$87:$J$89</xm:f>
           </x14:formula1>
-          <xm:sqref>AG6:AG7</xm:sqref>
+          <xm:sqref>AI6:AI7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BCE2CE56-EE54-4F28-94FB-4386724E34D7}">
           <x14:formula1>
             <xm:f>'Library and Platform Names'!$A$51:$A$83</xm:f>
           </x14:formula1>
-          <xm:sqref>AJ6:AJ7 AA6:AA7 AJ3:AJ4</xm:sqref>
+          <xm:sqref>AL6:AL7 AC6:AC7 AL3:AL4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{056496BE-1007-40BB-8104-2AE7F65DC6BC}">
           <x14:formula1>
             <xm:f>'Library and Platform Names'!$A$40:$A$48</xm:f>
           </x14:formula1>
-          <xm:sqref>AI6:AI7 Z6:Z7 AI3:AI4</xm:sqref>
+          <xm:sqref>AK6:AK7 AB6:AB7 AK3:AK4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{74816595-F9E8-4088-AEE4-D45C47DB6D3A}">
           <x14:formula1>
             <xm:f>'Library and Platform Names'!$A$3:$A$37</xm:f>
           </x14:formula1>
-          <xm:sqref>AH6:AH7 Y6:Y7 AH3:AH4</xm:sqref>
+          <xm:sqref>AJ6:AJ7 AA6:AA7 AJ3:AJ4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8395FC48-4396-4B08-AFEB-CF7ED936973C}">
           <x14:formula1>
             <xm:f>'Library and Platform Names'!$C$87:$C$107</xm:f>
           </x14:formula1>
-          <xm:sqref>X6:X7 AG3:AG4</xm:sqref>
+          <xm:sqref>Z6:Z7 AI3:AI4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5728,20 +5870,20 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5" customWidth="1"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
-    <col min="20" max="20" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" customWidth="1"/>
+    <col min="20" max="20" width="24.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>321</v>
       </c>
@@ -5764,7 +5906,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -5871,7 +6013,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35">
       <c r="A3" t="s">
         <v>328</v>
       </c>
@@ -5972,7 +6114,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>364</v>
       </c>
@@ -6070,7 +6212,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35">
       <c r="D5" s="28"/>
       <c r="M5" s="28"/>
       <c r="Q5" s="28"/>
@@ -6078,7 +6220,7 @@
       <c r="U5" s="28"/>
       <c r="AC5" s="28"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35">
       <c r="D6" s="28"/>
       <c r="M6" s="28"/>
       <c r="Q6" s="28"/>
@@ -6086,7 +6228,7 @@
       <c r="U6" s="28"/>
       <c r="AC6" s="28"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35">
       <c r="D7" s="28"/>
       <c r="M7" s="28"/>
       <c r="Q7" s="28"/>
@@ -6094,7 +6236,7 @@
       <c r="U7" s="28"/>
       <c r="AC7" s="28"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35">
       <c r="A8" s="30" t="s">
         <v>337</v>
       </c>
@@ -6107,7 +6249,7 @@
       <c r="U8" s="28"/>
       <c r="AC8" s="28"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35">
       <c r="A9" t="s">
         <v>321</v>
       </c>
@@ -6130,7 +6272,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35">
       <c r="A10" s="18" t="s">
         <v>0</v>
       </c>
@@ -6237,7 +6379,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35">
       <c r="A11" t="s">
         <v>328</v>
       </c>
@@ -6285,7 +6427,7 @@
       <c r="U11" s="28"/>
       <c r="AC11" s="28"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35">
       <c r="A12" t="s">
         <v>338</v>
       </c>
@@ -6327,7 +6469,7 @@
       <c r="U12" s="28"/>
       <c r="AC12" s="28"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35">
       <c r="D13" s="28"/>
       <c r="M13" s="28"/>
       <c r="Q13" s="28"/>
@@ -6335,7 +6477,7 @@
       <c r="U13" s="28"/>
       <c r="AC13" s="28"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35">
       <c r="A14" s="30" t="s">
         <v>343</v>
       </c>
@@ -6348,7 +6490,7 @@
       <c r="U14" s="28"/>
       <c r="AC14" s="28"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35">
       <c r="A15" t="s">
         <v>321</v>
       </c>
@@ -6371,7 +6513,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35">
       <c r="A16" s="18" t="s">
         <v>0</v>
       </c>
@@ -6478,7 +6620,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35">
       <c r="A17" t="s">
         <v>344</v>
       </c>
@@ -6557,7 +6699,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35">
       <c r="A18" t="s">
         <v>353</v>
       </c>
@@ -6619,7 +6761,7 @@
       </c>
       <c r="AC18" s="28"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35">
       <c r="A19" t="s">
         <v>354</v>
       </c>
@@ -6669,7 +6811,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35">
       <c r="D20" s="28"/>
       <c r="M20" s="28"/>
       <c r="Q20" s="28"/>
@@ -6677,7 +6819,7 @@
       <c r="U20" s="28"/>
       <c r="AC20" s="28"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35">
       <c r="D21" s="28"/>
       <c r="M21" s="28"/>
       <c r="Q21" s="28"/>
@@ -6685,7 +6827,7 @@
       <c r="U21" s="28"/>
       <c r="AC21" s="28"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35">
       <c r="D22" s="28"/>
       <c r="M22" s="28"/>
       <c r="Q22" s="28"/>
@@ -6693,7 +6835,7 @@
       <c r="U22" s="28"/>
       <c r="AC22" s="28"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35">
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -6710,7 +6852,7 @@
       <c r="U23" s="28"/>
       <c r="AC23" s="28"/>
     </row>
-    <row r="24" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" ht="18.5">
       <c r="A24" s="27"/>
       <c r="B24" s="33" t="s">
         <v>363</v>
@@ -6729,7 +6871,7 @@
       <c r="U24" s="28"/>
       <c r="AC24" s="28"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -6746,7 +6888,7 @@
       <c r="U25" s="28"/>
       <c r="AC25" s="28"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35">
       <c r="A26" s="27"/>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
@@ -6763,7 +6905,7 @@
       <c r="U26" s="28"/>
       <c r="AC26" s="28"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -6780,7 +6922,7 @@
       <c r="U27" s="28"/>
       <c r="AC27" s="28"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35">
       <c r="D28" s="28"/>
       <c r="M28" s="28"/>
       <c r="Q28" s="28"/>
@@ -6788,7 +6930,7 @@
       <c r="U28" s="28"/>
       <c r="AC28" s="28"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35">
       <c r="D29" s="28"/>
       <c r="M29" s="28"/>
       <c r="Q29" s="28"/>
@@ -6796,7 +6938,7 @@
       <c r="U29" s="28"/>
       <c r="AC29" s="28"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35">
       <c r="D30" s="28"/>
       <c r="M30" s="28"/>
       <c r="Q30" s="28"/>
@@ -6854,32 +6996,32 @@
       <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" thickTop="1" thickBottom="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" thickTop="1" thickBottom="1"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="15" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.1640625" style="24"/>
+    <col min="1" max="1" width="14.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.36328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.1796875" style="24"/>
     <col min="9" max="9" width="13" style="19" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="24"/>
-    <col min="11" max="12" width="9.1640625" style="12"/>
-    <col min="13" max="14" width="9.1640625" style="23"/>
-    <col min="15" max="15" width="9.1640625" style="12"/>
-    <col min="16" max="16" width="14.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" style="19"/>
-    <col min="18" max="19" width="9.1640625" style="12"/>
-    <col min="20" max="24" width="9.1640625" style="13"/>
-    <col min="25" max="29" width="9.1640625" style="14"/>
-    <col min="32" max="32" width="9.1640625" style="26"/>
-    <col min="33" max="33" width="23.5" customWidth="1"/>
-    <col min="37" max="38" width="9.1640625" style="13"/>
-    <col min="39" max="39" width="9.1640625" style="14"/>
-    <col min="40" max="40" width="19.83203125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="24"/>
+    <col min="11" max="12" width="9.1796875" style="12"/>
+    <col min="13" max="14" width="9.1796875" style="23"/>
+    <col min="15" max="15" width="9.1796875" style="12"/>
+    <col min="16" max="16" width="14.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" style="19"/>
+    <col min="18" max="19" width="9.1796875" style="12"/>
+    <col min="20" max="24" width="9.1796875" style="13"/>
+    <col min="25" max="29" width="9.1796875" style="14"/>
+    <col min="32" max="32" width="9.1796875" style="26"/>
+    <col min="33" max="33" width="23.453125" customWidth="1"/>
+    <col min="37" max="38" width="9.1796875" style="13"/>
+    <col min="39" max="39" width="9.1796875" style="14"/>
+    <col min="40" max="40" width="19.81640625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="18" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" s="18" customFormat="1" thickTop="1" thickBot="1">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -7001,7 +7143,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:40" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" thickTop="1" thickBot="1">
       <c r="A2" s="15" t="s">
         <v>39</v>
       </c>
@@ -7177,18 +7319,18 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="40.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7283,7 +7425,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -7366,7 +7508,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31">
       <c r="O4" s="1"/>
     </row>
   </sheetData>
@@ -7383,14 +7525,14 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" customWidth="1"/>
+    <col min="14" max="14" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7485,7 +7627,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -7595,22 +7737,22 @@
       <selection activeCell="B71" sqref="B71:C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="3" max="3" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" thickBot="1">
       <c r="A1" s="5"/>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -7623,7 +7765,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>100</v>
       </c>
@@ -7640,7 +7782,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
         <v>102</v>
       </c>
@@ -7657,7 +7799,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="5" t="s">
         <v>58</v>
       </c>
@@ -7674,7 +7816,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="5" t="s">
         <v>105</v>
       </c>
@@ -7691,7 +7833,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="5" t="s">
         <v>107</v>
       </c>
@@ -7708,7 +7850,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="5" t="s">
         <v>109</v>
       </c>
@@ -7725,7 +7867,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="5" t="s">
         <v>111</v>
       </c>
@@ -7742,7 +7884,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="5" t="s">
         <v>113</v>
       </c>
@@ -7759,7 +7901,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="5" t="s">
         <v>115</v>
       </c>
@@ -7776,7 +7918,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="5" t="s">
         <v>117</v>
       </c>
@@ -7793,7 +7935,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="5" t="s">
         <v>119</v>
       </c>
@@ -7810,7 +7952,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
         <v>121</v>
       </c>
@@ -7827,7 +7969,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="5" t="s">
         <v>123</v>
       </c>
@@ -7844,7 +7986,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="5" t="s">
         <v>125</v>
       </c>
@@ -7861,7 +8003,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="5" t="s">
         <v>127</v>
       </c>
@@ -7878,7 +8020,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="5" t="s">
         <v>129</v>
       </c>
@@ -7895,7 +8037,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="5" t="s">
         <v>131</v>
       </c>
@@ -7912,7 +8054,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="5" t="s">
         <v>133</v>
       </c>
@@ -7929,7 +8071,7 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="5" t="s">
         <v>135</v>
       </c>
@@ -7946,7 +8088,7 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="5" t="s">
         <v>137</v>
       </c>
@@ -7963,7 +8105,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="5" t="s">
         <v>139</v>
       </c>
@@ -7980,7 +8122,7 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" s="5" t="s">
         <v>141</v>
       </c>
@@ -7997,7 +8139,7 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" s="5" t="s">
         <v>143</v>
       </c>
@@ -8014,7 +8156,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" s="5" t="s">
         <v>145</v>
       </c>
@@ -8029,7 +8171,7 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" s="5" t="s">
         <v>146</v>
       </c>
@@ -8046,7 +8188,7 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" s="5" t="s">
         <v>148</v>
       </c>
@@ -8063,7 +8205,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" s="5" t="s">
         <v>150</v>
       </c>
@@ -8080,7 +8222,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" s="5" t="s">
         <v>152</v>
       </c>
@@ -8097,7 +8239,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" s="5" t="s">
         <v>154</v>
       </c>
@@ -8114,7 +8256,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" s="5" t="s">
         <v>156</v>
       </c>
@@ -8129,7 +8271,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" s="5" t="s">
         <v>157</v>
       </c>
@@ -8146,7 +8288,7 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" s="5" t="s">
         <v>159</v>
       </c>
@@ -8163,7 +8305,7 @@
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" s="5" t="s">
         <v>161</v>
       </c>
@@ -8180,7 +8322,7 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" s="5" t="s">
         <v>163</v>
       </c>
@@ -8195,7 +8337,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" s="5" t="s">
         <v>164</v>
       </c>
@@ -8210,7 +8352,7 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" s="5" t="s">
         <v>165</v>
       </c>
@@ -8227,7 +8369,7 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15" thickBot="1">
       <c r="A38" s="5"/>
       <c r="B38" s="44"/>
       <c r="C38" s="44"/>
@@ -8240,7 +8382,7 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15" thickBot="1">
       <c r="A39" s="6" t="s">
         <v>167</v>
       </c>
@@ -8257,7 +8399,7 @@
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" s="5" t="s">
         <v>168</v>
       </c>
@@ -8274,7 +8416,7 @@
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" s="5" t="s">
         <v>170</v>
       </c>
@@ -8291,7 +8433,7 @@
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" s="5" t="s">
         <v>59</v>
       </c>
@@ -8308,7 +8450,7 @@
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" s="5" t="s">
         <v>173</v>
       </c>
@@ -8325,7 +8467,7 @@
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" s="5" t="s">
         <v>175</v>
       </c>
@@ -8342,7 +8484,7 @@
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" s="5" t="s">
         <v>177</v>
       </c>
@@ -8359,7 +8501,7 @@
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11">
       <c r="A46" s="5" t="s">
         <v>179</v>
       </c>
@@ -8374,7 +8516,7 @@
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11">
       <c r="A47" s="5" t="s">
         <v>180</v>
       </c>
@@ -8389,7 +8531,7 @@
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11">
       <c r="A48" s="5" t="s">
         <v>165</v>
       </c>
@@ -8406,7 +8548,7 @@
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
     </row>
-    <row r="49" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15" thickBot="1">
       <c r="A49" s="5"/>
       <c r="B49" s="44"/>
       <c r="C49" s="44"/>
@@ -8419,7 +8561,7 @@
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
     </row>
-    <row r="50" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="15" thickBot="1">
       <c r="A50" s="6" t="s">
         <v>182</v>
       </c>
@@ -8436,7 +8578,7 @@
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11">
       <c r="A51" s="5" t="s">
         <v>60</v>
       </c>
@@ -8453,7 +8595,7 @@
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11">
       <c r="A52" s="5" t="s">
         <v>184</v>
       </c>
@@ -8470,7 +8612,7 @@
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11">
       <c r="A53" s="5" t="s">
         <v>186</v>
       </c>
@@ -8487,7 +8629,7 @@
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11">
       <c r="A54" s="5" t="s">
         <v>98</v>
       </c>
@@ -8504,7 +8646,7 @@
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11">
       <c r="A55" s="5" t="s">
         <v>189</v>
       </c>
@@ -8521,7 +8663,7 @@
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11">
       <c r="A56" s="5" t="s">
         <v>191</v>
       </c>
@@ -8538,7 +8680,7 @@
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11">
       <c r="A57" s="5" t="s">
         <v>193</v>
       </c>
@@ -8555,7 +8697,7 @@
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11">
       <c r="A58" s="5" t="s">
         <v>195</v>
       </c>
@@ -8572,7 +8714,7 @@
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11">
       <c r="A59" s="5" t="s">
         <v>197</v>
       </c>
@@ -8589,7 +8731,7 @@
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11">
       <c r="A60" s="5" t="s">
         <v>199</v>
       </c>
@@ -8606,7 +8748,7 @@
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11">
       <c r="A61" s="5" t="s">
         <v>201</v>
       </c>
@@ -8623,7 +8765,7 @@
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11">
       <c r="A62" s="5" t="s">
         <v>203</v>
       </c>
@@ -8640,7 +8782,7 @@
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11">
       <c r="A63" s="5" t="s">
         <v>205</v>
       </c>
@@ -8657,7 +8799,7 @@
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11">
       <c r="A64" s="5" t="s">
         <v>207</v>
       </c>
@@ -8674,7 +8816,7 @@
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11">
       <c r="A65" s="5" t="s">
         <v>209</v>
       </c>
@@ -8691,7 +8833,7 @@
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11">
       <c r="A66" s="5" t="s">
         <v>211</v>
       </c>
@@ -8708,7 +8850,7 @@
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11">
       <c r="A67" s="5" t="s">
         <v>213</v>
       </c>
@@ -8725,7 +8867,7 @@
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11">
       <c r="A68" s="5" t="s">
         <v>215</v>
       </c>
@@ -8742,7 +8884,7 @@
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11">
       <c r="A69" s="5" t="s">
         <v>217</v>
       </c>
@@ -8759,7 +8901,7 @@
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11">
       <c r="A70" s="5" t="s">
         <v>219</v>
       </c>
@@ -8776,7 +8918,7 @@
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11">
       <c r="A71" s="5" t="s">
         <v>221</v>
       </c>
@@ -8793,7 +8935,7 @@
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11">
       <c r="A72" s="5" t="s">
         <v>223</v>
       </c>
@@ -8810,7 +8952,7 @@
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11">
       <c r="A73" s="5" t="s">
         <v>225</v>
       </c>
@@ -8827,7 +8969,7 @@
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11">
       <c r="A74" s="5" t="s">
         <v>227</v>
       </c>
@@ -8844,7 +8986,7 @@
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11">
       <c r="A75" s="5" t="s">
         <v>229</v>
       </c>
@@ -8861,7 +9003,7 @@
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11">
       <c r="A76" s="5" t="s">
         <v>231</v>
       </c>
@@ -8878,7 +9020,7 @@
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11">
       <c r="A77" s="5" t="s">
         <v>233</v>
       </c>
@@ -8895,7 +9037,7 @@
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11">
       <c r="A78" s="5" t="s">
         <v>235</v>
       </c>
@@ -8910,7 +9052,7 @@
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11">
       <c r="A79" s="5" t="s">
         <v>236</v>
       </c>
@@ -8925,7 +9067,7 @@
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11">
       <c r="A80" s="5" t="s">
         <v>237</v>
       </c>
@@ -8942,7 +9084,7 @@
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11">
       <c r="A81" s="5" t="s">
         <v>239</v>
       </c>
@@ -8959,7 +9101,7 @@
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11">
       <c r="A82" s="5" t="s">
         <v>241</v>
       </c>
@@ -8976,7 +9118,7 @@
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11">
       <c r="A83" s="5" t="s">
         <v>243</v>
       </c>
@@ -8993,7 +9135,7 @@
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
     </row>
-    <row r="84" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="15" thickBot="1">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="21"/>
@@ -9006,7 +9148,7 @@
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
     </row>
-    <row r="85" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="15" thickBot="1">
       <c r="A85" s="6" t="s">
         <v>245</v>
       </c>
@@ -9021,7 +9163,7 @@
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11">
       <c r="A86" s="5" t="s">
         <v>246</v>
       </c>
@@ -9056,7 +9198,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11">
       <c r="A87" s="5" t="s">
         <v>249</v>
       </c>
@@ -9091,7 +9233,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11">
       <c r="A88" s="5" t="s">
         <v>255</v>
       </c>
@@ -9122,7 +9264,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="27.5">
       <c r="A89" s="5" t="s">
         <v>253</v>
       </c>
@@ -9153,7 +9295,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="27.5">
       <c r="A90" s="5" t="s">
         <v>250</v>
       </c>
@@ -9182,7 +9324,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="27.5">
       <c r="A91" s="5" t="s">
         <v>248</v>
       </c>
@@ -9207,7 +9349,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11">
       <c r="A92" s="5" t="s">
         <v>247</v>
       </c>
@@ -9230,7 +9372,7 @@
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11">
       <c r="A93" s="5" t="s">
         <v>252</v>
       </c>
@@ -9251,7 +9393,7 @@
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11">
       <c r="A94" s="5" t="s">
         <v>254</v>
       </c>
@@ -9270,7 +9412,7 @@
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11">
       <c r="A95" s="5" t="s">
         <v>251</v>
       </c>
@@ -9289,7 +9431,7 @@
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11">
       <c r="A96" s="5"/>
       <c r="B96" s="21"/>
       <c r="C96" s="21" t="s">
@@ -9306,7 +9448,7 @@
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11">
       <c r="A97" s="5"/>
       <c r="B97" s="21"/>
       <c r="C97" s="21" t="s">
@@ -9321,7 +9463,7 @@
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11">
       <c r="A98" s="5"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21" t="s">
@@ -9336,7 +9478,7 @@
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11">
       <c r="A99" s="5"/>
       <c r="B99" s="21"/>
       <c r="C99" s="21" t="s">
@@ -9351,7 +9493,7 @@
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11">
       <c r="A100" s="5"/>
       <c r="B100" s="21"/>
       <c r="C100" s="11" t="s">
@@ -9366,7 +9508,7 @@
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11">
       <c r="A101" s="5"/>
       <c r="B101" s="21"/>
       <c r="C101" s="10" t="s">
@@ -9381,7 +9523,7 @@
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11">
       <c r="A102" s="5"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21" t="s">
@@ -9396,7 +9538,7 @@
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11">
       <c r="A103" s="5"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21" t="s">
@@ -9411,7 +9553,7 @@
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11">
       <c r="A104" s="5"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21" t="s">
@@ -9426,7 +9568,7 @@
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11">
       <c r="A105" s="5"/>
       <c r="B105" s="21"/>
       <c r="C105" s="9" t="s">
@@ -9441,7 +9583,7 @@
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11">
       <c r="A106" s="5"/>
       <c r="B106" s="21"/>
       <c r="C106" s="9" t="s">
@@ -9456,7 +9598,7 @@
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11">
       <c r="A107" s="5"/>
       <c r="B107" s="21"/>
       <c r="C107" s="9" t="s">

--- a/assets/sample_metadata/varv_test_metadata.xlsx
+++ b/assets/sample_metadata/varv_test_metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ick4\Downloads\sample_metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ick4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8376F51F-F782-4DCD-9403-EA3C9C60D8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82598F4-00B9-432F-B40D-D98DA933C663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2862,7 +2862,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="418">
   <si>
     <t>*sample_name</t>
   </si>
@@ -4104,6 +4104,18 @@
   </si>
   <si>
     <t>authors</t>
+  </si>
+  <si>
+    <t>host_sex</t>
+  </si>
+  <si>
+    <t>host_age</t>
+  </si>
+  <si>
+    <t>gff_path</t>
+  </si>
+  <si>
+    <t>VARV_TEST</t>
   </si>
 </sst>
 </file>
@@ -5335,10 +5347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED69788A-8BB8-4090-9E16-DE7573DAAD2C}">
-  <dimension ref="A1:BB45"/>
+  <dimension ref="A1:BB44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -5423,9 +5435,7 @@
       <c r="N2" s="40" t="s">
         <v>385</v>
       </c>
-      <c r="O2" s="40" t="s">
-        <v>386</v>
-      </c>
+      <c r="O2" s="40"/>
       <c r="P2" s="39" t="s">
         <v>374</v>
       </c>
@@ -5457,10 +5467,10 @@
         <v>34</v>
       </c>
       <c r="Z2" s="41" t="s">
-        <v>10</v>
+        <v>414</v>
       </c>
       <c r="AA2" s="39" t="s">
-        <v>11</v>
+        <v>415</v>
       </c>
       <c r="AB2" s="39" t="s">
         <v>17</v>
@@ -5480,55 +5490,58 @@
       <c r="AG2" s="43" t="s">
         <v>392</v>
       </c>
-      <c r="AH2" s="41" t="s">
+      <c r="AH2" s="43" t="s">
+        <v>416</v>
+      </c>
+      <c r="AI2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="AI2" s="41" t="s">
+      <c r="AJ2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="39" t="s">
+      <c r="AK2" s="39" t="s">
         <v>366</v>
       </c>
-      <c r="AK2" s="39" t="s">
+      <c r="AL2" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="AL2" s="39" t="s">
+      <c r="AM2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="AM2" s="39" t="s">
+      <c r="AN2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="AN2" s="39" t="s">
+      <c r="AO2" s="39" t="s">
         <v>318</v>
       </c>
-      <c r="AO2" s="39" t="s">
+      <c r="AP2" s="39" t="s">
         <v>387</v>
       </c>
-      <c r="AP2" s="39" t="s">
+      <c r="AQ2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="AQ2" s="39" t="s">
+      <c r="AR2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AR2" s="41" t="s">
+      <c r="AS2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="AS2" s="39" t="s">
+      <c r="AT2" s="39" t="s">
         <v>367</v>
       </c>
-      <c r="AT2" s="39" t="s">
+      <c r="AU2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="AU2" s="39" t="s">
+      <c r="AV2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="AV2" s="39" t="s">
+      <c r="AW2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="AW2" s="39" t="s">
+      <c r="AX2" s="39" t="s">
         <v>319</v>
       </c>
-      <c r="AX2" s="39" t="s">
+      <c r="AY2" s="39" t="s">
         <v>37</v>
       </c>
       <c r="AZ2" s="42" t="s">
@@ -5548,6 +5561,9 @@
       <c r="B3" t="s">
         <v>396</v>
       </c>
+      <c r="C3" t="s">
+        <v>417</v>
+      </c>
       <c r="E3" t="s">
         <v>412</v>
       </c>
@@ -5621,6 +5637,9 @@
       </c>
       <c r="B4" t="s">
         <v>395</v>
+      </c>
+      <c r="C4" t="s">
+        <v>417</v>
       </c>
       <c r="E4" t="s">
         <v>412</v>
@@ -5811,9 +5830,6 @@
     </row>
     <row r="44" spans="6:6">
       <c r="F44" s="37"/>
-    </row>
-    <row r="45" spans="6:6">
-      <c r="F45" s="37"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -9615,12 +9631,51 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -9633,51 +9688,12 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/sample_metadata/varv_test_metadata.xlsx
+++ b/assets/sample_metadata/varv_test_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ick4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\01.scripts\tostadas\assets\sample_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82598F4-00B9-432F-B40D-D98DA933C663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F8867F-A639-41A4-8888-F6303665386A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VARV_Metadata" sheetId="9" r:id="rId1"/>
@@ -2862,7 +2862,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="421">
   <si>
     <t>*sample_name</t>
   </si>
@@ -4116,6 +4116,15 @@
   </si>
   <si>
     <t>VARV_TEST</t>
+  </si>
+  <si>
+    <t>assets/sample_annotations/variola/VARV_RZ10_3587_reformatted.gff</t>
+  </si>
+  <si>
+    <t>illumina_library_name</t>
+  </si>
+  <si>
+    <t>nanopore_library_name</t>
   </si>
 </sst>
 </file>
@@ -4988,9 +4997,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5028,7 +5037,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5134,7 +5143,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5276,7 +5285,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5347,10 +5356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED69788A-8BB8-4090-9E16-DE7573DAAD2C}">
-  <dimension ref="A1:BB44"/>
+  <dimension ref="A1:BD44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="BC3" sqref="BC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -5358,10 +5367,10 @@
     <col min="1" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="24.1796875" customWidth="1"/>
     <col min="6" max="6" width="23.453125" customWidth="1"/>
-    <col min="7" max="43" width="27" customWidth="1"/>
+    <col min="7" max="44" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="18.75" customHeight="1">
+    <row r="1" spans="1:56" ht="18.75" customHeight="1">
       <c r="A1" t="s">
         <v>321</v>
       </c>
@@ -5385,14 +5394,14 @@
       <c r="AI1" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="AR1" s="36" t="s">
+      <c r="AT1" s="36" t="s">
         <v>324</v>
       </c>
-      <c r="AZ1" s="38"/>
-      <c r="BA1" s="38"/>
       <c r="BB1" s="38"/>
-    </row>
-    <row r="2" spans="1:54" ht="18.75" customHeight="1">
+      <c r="BC1" s="38"/>
+      <c r="BD1" s="38"/>
+    </row>
+    <row r="2" spans="1:56" ht="18.75" customHeight="1">
       <c r="A2" s="39" t="s">
         <v>370</v>
       </c>
@@ -5515,46 +5524,52 @@
         <v>318</v>
       </c>
       <c r="AP2" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="AQ2" s="39" t="s">
         <v>387</v>
       </c>
-      <c r="AQ2" s="39" t="s">
+      <c r="AR2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="AR2" s="39" t="s">
+      <c r="AS2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AS2" s="41" t="s">
+      <c r="AT2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="AT2" s="39" t="s">
+      <c r="AU2" s="39" t="s">
         <v>367</v>
       </c>
-      <c r="AU2" s="39" t="s">
+      <c r="AV2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="AV2" s="39" t="s">
+      <c r="AW2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="AW2" s="39" t="s">
+      <c r="AX2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="AX2" s="39" t="s">
+      <c r="AY2" s="39" t="s">
         <v>319</v>
       </c>
-      <c r="AY2" s="39" t="s">
+      <c r="AZ2" s="39" t="s">
+        <v>420</v>
+      </c>
+      <c r="BA2" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="AZ2" s="42" t="s">
+      <c r="BB2" s="42" t="s">
         <v>388</v>
       </c>
-      <c r="BA2" s="42" t="s">
+      <c r="BC2" s="42" t="s">
         <v>389</v>
       </c>
-      <c r="BB2" s="42" t="s">
+      <c r="BD2" s="42" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:56">
       <c r="A3" t="s">
         <v>393</v>
       </c>
@@ -5603,35 +5618,38 @@
       <c r="AG3" t="s">
         <v>404</v>
       </c>
-      <c r="AH3" s="35" t="s">
+      <c r="AH3" t="s">
+        <v>418</v>
+      </c>
+      <c r="AI3" s="35" t="s">
         <v>393</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>310</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>58</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>59</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>60</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>61</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AQ3" t="s">
         <v>391</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AR3" t="s">
         <v>406</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AS3" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:56">
       <c r="A4" t="s">
         <v>394</v>
       </c>
@@ -5680,71 +5698,74 @@
       <c r="AG4" t="s">
         <v>405</v>
       </c>
-      <c r="AH4" s="35" t="s">
+      <c r="AH4" t="s">
+        <v>418</v>
+      </c>
+      <c r="AI4" s="35" t="s">
         <v>394</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>310</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
         <v>58</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
         <v>59</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>60</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>61</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AQ4" t="s">
         <v>391</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AR4" t="s">
         <v>407</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AS4" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:56">
       <c r="R5" s="28"/>
       <c r="Y5" s="35"/>
       <c r="AI5" s="28"/>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:56">
       <c r="R6" s="28"/>
       <c r="Y6" s="35"/>
       <c r="AI6" s="28"/>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:56">
       <c r="R7" s="28"/>
       <c r="Y7" s="35"/>
       <c r="AI7" s="28"/>
     </row>
-    <row r="9" spans="1:54">
+    <row r="9" spans="1:56">
       <c r="F9" s="37"/>
     </row>
-    <row r="10" spans="1:54">
+    <row r="10" spans="1:56">
       <c r="F10" s="37"/>
     </row>
-    <row r="11" spans="1:54">
+    <row r="11" spans="1:56">
       <c r="F11" s="37"/>
     </row>
-    <row r="12" spans="1:54">
+    <row r="12" spans="1:56">
       <c r="F12" s="37"/>
     </row>
-    <row r="13" spans="1:54">
+    <row r="13" spans="1:56">
       <c r="F13" s="37"/>
     </row>
-    <row r="14" spans="1:54">
+    <row r="14" spans="1:56">
       <c r="F14" s="37"/>
     </row>
-    <row r="15" spans="1:54">
+    <row r="15" spans="1:56">
       <c r="F15" s="37"/>
     </row>
-    <row r="16" spans="1:54">
+    <row r="16" spans="1:56">
       <c r="F16" s="37"/>
     </row>
     <row r="17" spans="6:6">
@@ -5833,7 +5854,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM7 AD6:AD7 AM3:AM4" xr:uid="{E94CD281-9EAA-4F57-AE0B-4DBF756B8F3B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM7 AD6:AD7 AN3:AN4" xr:uid="{E94CD281-9EAA-4F57-AE0B-4DBF756B8F3B}">
       <formula1>"single,paired"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5852,25 +5873,25 @@
           <x14:formula1>
             <xm:f>'Library and Platform Names'!$A$51:$A$83</xm:f>
           </x14:formula1>
-          <xm:sqref>AL6:AL7 AC6:AC7 AL3:AL4</xm:sqref>
+          <xm:sqref>AL6:AL7 AC6:AC7 AM3:AM4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{056496BE-1007-40BB-8104-2AE7F65DC6BC}">
           <x14:formula1>
             <xm:f>'Library and Platform Names'!$A$40:$A$48</xm:f>
           </x14:formula1>
-          <xm:sqref>AK6:AK7 AB6:AB7 AK3:AK4</xm:sqref>
+          <xm:sqref>AK6:AK7 AB6:AB7 AL3:AL4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{74816595-F9E8-4088-AEE4-D45C47DB6D3A}">
           <x14:formula1>
             <xm:f>'Library and Platform Names'!$A$3:$A$37</xm:f>
           </x14:formula1>
-          <xm:sqref>AJ6:AJ7 AA6:AA7 AJ3:AJ4</xm:sqref>
+          <xm:sqref>AJ6:AJ7 AA6:AA7 AK3:AK4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8395FC48-4396-4B08-AFEB-CF7ED936973C}">
           <x14:formula1>
             <xm:f>'Library and Platform Names'!$C$87:$C$107</xm:f>
           </x14:formula1>
-          <xm:sqref>Z6:Z7 AI3:AI4</xm:sqref>
+          <xm:sqref>Z6:Z7 AJ3:AJ4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9631,15 +9652,48 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
@@ -9652,48 +9706,15 @@
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/sample_metadata/varv_test_metadata.xlsx
+++ b/assets/sample_metadata/varv_test_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ick4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\01.scripts\tostadas\assets\sample_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82598F4-00B9-432F-B40D-D98DA933C663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D29AC8-8183-44B0-A922-AE80DD7DC239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VARV_Metadata" sheetId="9" r:id="rId1"/>
@@ -2862,7 +2862,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="421">
   <si>
     <t>*sample_name</t>
   </si>
@@ -4116,6 +4116,15 @@
   </si>
   <si>
     <t>VARV_TEST</t>
+  </si>
+  <si>
+    <t>assets/sample_annotations/variola/VARV_RZ10_3587_reformatted.gff</t>
+  </si>
+  <si>
+    <t>illumina_library_name</t>
+  </si>
+  <si>
+    <t>nanopore_library_name</t>
   </si>
 </sst>
 </file>
@@ -4988,9 +4997,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5028,7 +5037,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5134,7 +5143,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5276,7 +5285,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5347,10 +5356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED69788A-8BB8-4090-9E16-DE7573DAAD2C}">
-  <dimension ref="A1:BB44"/>
+  <dimension ref="A1:BD44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AZ3" sqref="AZ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -5358,10 +5367,10 @@
     <col min="1" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="24.1796875" customWidth="1"/>
     <col min="6" max="6" width="23.453125" customWidth="1"/>
-    <col min="7" max="43" width="27" customWidth="1"/>
+    <col min="7" max="44" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="18.75" customHeight="1">
+    <row r="1" spans="1:56" ht="18.75" customHeight="1">
       <c r="A1" t="s">
         <v>321</v>
       </c>
@@ -5385,14 +5394,14 @@
       <c r="AI1" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="AR1" s="36" t="s">
+      <c r="AS1" s="36" t="s">
         <v>324</v>
       </c>
-      <c r="AZ1" s="38"/>
-      <c r="BA1" s="38"/>
       <c r="BB1" s="38"/>
-    </row>
-    <row r="2" spans="1:54" ht="18.75" customHeight="1">
+      <c r="BC1" s="38"/>
+      <c r="BD1" s="38"/>
+    </row>
+    <row r="2" spans="1:56" ht="18.75" customHeight="1">
       <c r="A2" s="39" t="s">
         <v>370</v>
       </c>
@@ -5515,46 +5524,52 @@
         <v>318</v>
       </c>
       <c r="AP2" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="AQ2" s="39" t="s">
         <v>387</v>
       </c>
-      <c r="AQ2" s="39" t="s">
+      <c r="AR2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="AR2" s="39" t="s">
+      <c r="AS2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AS2" s="41" t="s">
+      <c r="AT2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="AT2" s="39" t="s">
+      <c r="AU2" s="39" t="s">
         <v>367</v>
       </c>
-      <c r="AU2" s="39" t="s">
+      <c r="AV2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="AV2" s="39" t="s">
+      <c r="AW2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="AW2" s="39" t="s">
+      <c r="AX2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="AX2" s="39" t="s">
+      <c r="AY2" s="39" t="s">
         <v>319</v>
       </c>
-      <c r="AY2" s="39" t="s">
+      <c r="AZ2" s="39" t="s">
+        <v>420</v>
+      </c>
+      <c r="BA2" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="AZ2" s="42" t="s">
+      <c r="BB2" s="42" t="s">
         <v>388</v>
       </c>
-      <c r="BA2" s="42" t="s">
+      <c r="BC2" s="42" t="s">
         <v>389</v>
       </c>
-      <c r="BB2" s="42" t="s">
+      <c r="BD2" s="42" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:56">
       <c r="A3" t="s">
         <v>393</v>
       </c>
@@ -5603,35 +5618,38 @@
       <c r="AG3" t="s">
         <v>404</v>
       </c>
-      <c r="AH3" s="35" t="s">
+      <c r="AH3" t="s">
+        <v>418</v>
+      </c>
+      <c r="AI3" s="35" t="s">
         <v>393</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>310</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>58</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>59</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>60</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>61</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AQ3" t="s">
         <v>391</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AR3" t="s">
         <v>406</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AS3" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:56">
       <c r="A4" t="s">
         <v>394</v>
       </c>
@@ -5680,71 +5698,74 @@
       <c r="AG4" t="s">
         <v>405</v>
       </c>
-      <c r="AH4" s="35" t="s">
+      <c r="AH4" t="s">
+        <v>418</v>
+      </c>
+      <c r="AI4" s="35" t="s">
         <v>394</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>310</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
         <v>58</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
         <v>59</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>60</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>61</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AQ4" t="s">
         <v>391</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AR4" t="s">
         <v>407</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AS4" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:56">
       <c r="R5" s="28"/>
       <c r="Y5" s="35"/>
       <c r="AI5" s="28"/>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:56">
       <c r="R6" s="28"/>
       <c r="Y6" s="35"/>
       <c r="AI6" s="28"/>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:56">
       <c r="R7" s="28"/>
       <c r="Y7" s="35"/>
       <c r="AI7" s="28"/>
     </row>
-    <row r="9" spans="1:54">
+    <row r="9" spans="1:56">
       <c r="F9" s="37"/>
     </row>
-    <row r="10" spans="1:54">
+    <row r="10" spans="1:56">
       <c r="F10" s="37"/>
     </row>
-    <row r="11" spans="1:54">
+    <row r="11" spans="1:56">
       <c r="F11" s="37"/>
     </row>
-    <row r="12" spans="1:54">
+    <row r="12" spans="1:56">
       <c r="F12" s="37"/>
     </row>
-    <row r="13" spans="1:54">
+    <row r="13" spans="1:56">
       <c r="F13" s="37"/>
     </row>
-    <row r="14" spans="1:54">
+    <row r="14" spans="1:56">
       <c r="F14" s="37"/>
     </row>
-    <row r="15" spans="1:54">
+    <row r="15" spans="1:56">
       <c r="F15" s="37"/>
     </row>
-    <row r="16" spans="1:54">
+    <row r="16" spans="1:56">
       <c r="F16" s="37"/>
     </row>
     <row r="17" spans="6:6">
@@ -5833,7 +5854,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM7 AD6:AD7 AM3:AM4" xr:uid="{E94CD281-9EAA-4F57-AE0B-4DBF756B8F3B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM7 AD6:AD7 AN3:AN4" xr:uid="{E94CD281-9EAA-4F57-AE0B-4DBF756B8F3B}">
       <formula1>"single,paired"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5852,25 +5873,25 @@
           <x14:formula1>
             <xm:f>'Library and Platform Names'!$A$51:$A$83</xm:f>
           </x14:formula1>
-          <xm:sqref>AL6:AL7 AC6:AC7 AL3:AL4</xm:sqref>
+          <xm:sqref>AL6:AL7 AC6:AC7 AM3:AM4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{056496BE-1007-40BB-8104-2AE7F65DC6BC}">
           <x14:formula1>
             <xm:f>'Library and Platform Names'!$A$40:$A$48</xm:f>
           </x14:formula1>
-          <xm:sqref>AK6:AK7 AB6:AB7 AK3:AK4</xm:sqref>
+          <xm:sqref>AK6:AK7 AB6:AB7 AL3:AL4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{74816595-F9E8-4088-AEE4-D45C47DB6D3A}">
           <x14:formula1>
             <xm:f>'Library and Platform Names'!$A$3:$A$37</xm:f>
           </x14:formula1>
-          <xm:sqref>AJ6:AJ7 AA6:AA7 AJ3:AJ4</xm:sqref>
+          <xm:sqref>AJ6:AJ7 AA6:AA7 AK3:AK4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8395FC48-4396-4B08-AFEB-CF7ED936973C}">
           <x14:formula1>
             <xm:f>'Library and Platform Names'!$C$87:$C$107</xm:f>
           </x14:formula1>
-          <xm:sqref>Z6:Z7 AI3:AI4</xm:sqref>
+          <xm:sqref>Z6:Z7 AJ3:AJ4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9631,15 +9652,48 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
@@ -9652,48 +9706,15 @@
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/sample_metadata/varv_test_metadata.xlsx
+++ b/assets/sample_metadata/varv_test_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\01.scripts\tostadas\assets\sample_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D29AC8-8183-44B0-A922-AE80DD7DC239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4694C0D1-6674-4039-9865-D5B843509154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="12760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VARV_Metadata" sheetId="9" r:id="rId1"/>
@@ -2862,7 +2862,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="422">
   <si>
     <t>*sample_name</t>
   </si>
@@ -4125,6 +4125,9 @@
   </si>
   <si>
     <t>nanopore_library_name</t>
+  </si>
+  <si>
+    <t>Not Provided</t>
   </si>
 </sst>
 </file>
@@ -5359,7 +5362,7 @@
   <dimension ref="A1:BD44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AZ3" sqref="AZ3"/>
+      <selection activeCell="AP5" sqref="AP5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -5639,6 +5642,9 @@
       <c r="AN3" t="s">
         <v>61</v>
       </c>
+      <c r="AP3" t="s">
+        <v>421</v>
+      </c>
       <c r="AQ3" t="s">
         <v>391</v>
       </c>
@@ -5718,6 +5724,9 @@
       </c>
       <c r="AN4" t="s">
         <v>61</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>421</v>
       </c>
       <c r="AQ4" t="s">
         <v>391</v>
@@ -9652,12 +9661,51 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -9670,51 +9718,12 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/sample_metadata/varv_test_metadata.xlsx
+++ b/assets/sample_metadata/varv_test_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\01.scripts\tostadas\assets\sample_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4694C0D1-6674-4039-9865-D5B843509154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE12898-709E-4820-8C1C-540F7688157E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="12760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3400" windowWidth="28800" windowHeight="12760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VARV_Metadata" sheetId="9" r:id="rId1"/>
@@ -56,20 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{968F0232-993F-42AA-AE2C-4F9A0C037A03}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sequence name for NCBI Genbank and Biosample records, probably the same as 'isolate'</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{080FDDC6-4BCA-45A8-9DD8-6A6CBD2B834D}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{080FDDC6-4BCA-45A8-9DD8-6A6CBD2B834D}">
       <text>
         <r>
           <rPr>
@@ -92,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{F70BA5C7-C026-4470-BB45-6E3CE66DF205}">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{F70BA5C7-C026-4470-BB45-6E3CE66DF205}">
       <text>
         <r>
           <rPr>
@@ -105,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{21D5B7CA-0371-4BC6-B974-6581ECC36D9D}">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{21D5B7CA-0371-4BC6-B974-6581ECC36D9D}">
       <text>
         <r>
           <rPr>
@@ -118,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{E07D66A0-9136-47C2-89F5-CAA6B0BF44F2}">
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{E07D66A0-9136-47C2-89F5-CAA6B0BF44F2}">
       <text>
         <r>
           <rPr>
@@ -133,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{AA27E836-F0DC-4760-9FEC-7B015070C3D9}">
+    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{AA27E836-F0DC-4760-9FEC-7B015070C3D9}">
       <text>
         <r>
           <rPr>
@@ -146,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{479975C4-9E7A-4A5E-BEC1-50C2BE1BA0B0}">
+    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{479975C4-9E7A-4A5E-BEC1-50C2BE1BA0B0}">
       <text>
         <r>
           <rPr>
@@ -159,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{85C6D79F-61C1-4D9E-98DF-35AB4E6A7ED3}">
+    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{85C6D79F-61C1-4D9E-98DF-35AB4E6A7ED3}">
       <text>
         <r>
           <rPr>
@@ -173,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O5" authorId="0" shapeId="0" xr:uid="{071785E7-56D9-4E87-B448-25FBCBCA0295}">
+    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{071785E7-56D9-4E87-B448-25FBCBCA0295}">
       <text>
         <r>
           <rPr>
@@ -187,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P5" authorId="0" shapeId="0" xr:uid="{C3ED37C4-4FEC-41D0-9DBD-572EFB063300}">
+    <comment ref="O5" authorId="0" shapeId="0" xr:uid="{C3ED37C4-4FEC-41D0-9DBD-572EFB063300}">
       <text>
         <r>
           <rPr>
@@ -201,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q5" authorId="1" shapeId="0" xr:uid="{1EA2E6DE-8DE4-4B70-95A1-76B6F1DEBDF2}">
+    <comment ref="P5" authorId="1" shapeId="0" xr:uid="{1EA2E6DE-8DE4-4B70-95A1-76B6F1DEBDF2}">
       <text>
         <r>
           <rPr>
@@ -215,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R5" authorId="0" shapeId="0" xr:uid="{D1FAF6B3-857C-41E2-9566-DBF0E60FF405}">
+    <comment ref="Q5" authorId="0" shapeId="0" xr:uid="{D1FAF6B3-857C-41E2-9566-DBF0E60FF405}">
       <text>
         <r>
           <rPr>
@@ -229,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S5" authorId="1" shapeId="0" xr:uid="{6949FFB1-4FEB-42A2-A1D2-6EE3C2E2305C}">
+    <comment ref="R5" authorId="1" shapeId="0" xr:uid="{6949FFB1-4FEB-42A2-A1D2-6EE3C2E2305C}">
       <text>
         <r>
           <rPr>
@@ -243,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T5" authorId="1" shapeId="0" xr:uid="{FD378DB2-0BE6-410E-AEDB-F3A8DD679F80}">
+    <comment ref="S5" authorId="1" shapeId="0" xr:uid="{FD378DB2-0BE6-410E-AEDB-F3A8DD679F80}">
       <text>
         <r>
           <rPr>
@@ -258,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U5" authorId="1" shapeId="0" xr:uid="{2A019EB1-E062-45F8-B1CF-FB3255D8F3A8}">
+    <comment ref="T5" authorId="1" shapeId="0" xr:uid="{2A019EB1-E062-45F8-B1CF-FB3255D8F3A8}">
       <text>
         <r>
           <rPr>
@@ -272,7 +259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V5" authorId="0" shapeId="0" xr:uid="{4D7E8B39-EC3F-477C-9B4B-E13E0BA7AE43}">
+    <comment ref="U5" authorId="0" shapeId="0" xr:uid="{4D7E8B39-EC3F-477C-9B4B-E13E0BA7AE43}">
       <text>
         <r>
           <rPr>
@@ -285,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W5" authorId="0" shapeId="0" xr:uid="{BD5075ED-65F9-4D40-8419-E5756430BB70}">
+    <comment ref="V5" authorId="0" shapeId="0" xr:uid="{BD5075ED-65F9-4D40-8419-E5756430BB70}">
       <text>
         <r>
           <rPr>
@@ -298,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X5" authorId="1" shapeId="0" xr:uid="{3FE19B70-E33C-4212-AC6C-D1BDECEA7101}">
+    <comment ref="W5" authorId="1" shapeId="0" xr:uid="{3FE19B70-E33C-4212-AC6C-D1BDECEA7101}">
       <text>
         <r>
           <rPr>
@@ -311,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y5" authorId="0" shapeId="0" xr:uid="{EB946458-60DD-4E13-87AF-AA7A20D64262}">
+    <comment ref="X5" authorId="0" shapeId="0" xr:uid="{EB946458-60DD-4E13-87AF-AA7A20D64262}">
       <text>
         <r>
           <rPr>
@@ -324,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z5" authorId="1" shapeId="0" xr:uid="{331CD19D-1C0D-46F9-9E0E-B800949A9D80}">
+    <comment ref="Y5" authorId="1" shapeId="0" xr:uid="{331CD19D-1C0D-46F9-9E0E-B800949A9D80}">
       <text>
         <r>
           <rPr>
@@ -338,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA5" authorId="0" shapeId="0" xr:uid="{DAF6A12C-64AB-4116-B4E1-F76FF76179A2}">
+    <comment ref="Z5" authorId="0" shapeId="0" xr:uid="{DAF6A12C-64AB-4116-B4E1-F76FF76179A2}">
       <text>
         <r>
           <rPr>
@@ -351,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB5" authorId="0" shapeId="0" xr:uid="{0A3D1826-42B6-40FA-8AB0-C855DB3FAEFC}">
+    <comment ref="AA5" authorId="0" shapeId="0" xr:uid="{0A3D1826-42B6-40FA-8AB0-C855DB3FAEFC}">
       <text>
         <r>
           <rPr>
@@ -364,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC5" authorId="0" shapeId="0" xr:uid="{B0BB772A-E4A7-4A85-AE1B-76B0AD3016B6}">
+    <comment ref="AB5" authorId="0" shapeId="0" xr:uid="{B0BB772A-E4A7-4A85-AE1B-76B0AD3016B6}">
       <text>
         <r>
           <rPr>
@@ -377,7 +364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD5" authorId="0" shapeId="0" xr:uid="{F9F1CD31-2220-4301-BF9D-28371B6EB082}">
+    <comment ref="AC5" authorId="0" shapeId="0" xr:uid="{F9F1CD31-2220-4301-BF9D-28371B6EB082}">
       <text>
         <r>
           <rPr>
@@ -390,7 +377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE5" authorId="1" shapeId="0" xr:uid="{EB388CCC-2DFF-497E-812C-0E7BE6B0319E}">
+    <comment ref="AD5" authorId="1" shapeId="0" xr:uid="{EB388CCC-2DFF-497E-812C-0E7BE6B0319E}">
       <text>
         <r>
           <rPr>
@@ -404,7 +391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF5" authorId="1" shapeId="0" xr:uid="{AC465281-B22D-4402-AAD5-D3BEC15677DC}">
+    <comment ref="AE5" authorId="1" shapeId="0" xr:uid="{AC465281-B22D-4402-AAD5-D3BEC15677DC}">
       <text>
         <r>
           <rPr>
@@ -437,7 +424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH5" authorId="1" shapeId="0" xr:uid="{F79A8E9C-C804-4281-A6FE-04B94CE39270}">
+    <comment ref="AG5" authorId="1" shapeId="0" xr:uid="{F79A8E9C-C804-4281-A6FE-04B94CE39270}">
       <text>
         <r>
           <rPr>
@@ -469,7 +456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI5" authorId="1" shapeId="0" xr:uid="{17F66995-0056-4686-B6E7-2818CDBED7DC}">
+    <comment ref="AH5" authorId="1" shapeId="0" xr:uid="{17F66995-0056-4686-B6E7-2818CDBED7DC}">
       <text>
         <r>
           <rPr>
@@ -482,7 +469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ5" authorId="0" shapeId="0" xr:uid="{7F125DDB-EAB4-404B-9CC8-CBAC41720E17}">
+    <comment ref="AI5" authorId="0" shapeId="0" xr:uid="{7F125DDB-EAB4-404B-9CC8-CBAC41720E17}">
       <text>
         <r>
           <rPr>
@@ -505,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK5" authorId="0" shapeId="0" xr:uid="{C96D2C59-64DB-4600-A1C6-8E20EF9D4281}">
+    <comment ref="AJ5" authorId="0" shapeId="0" xr:uid="{C96D2C59-64DB-4600-A1C6-8E20EF9D4281}">
       <text>
         <r>
           <rPr>
@@ -518,7 +505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL5" authorId="0" shapeId="0" xr:uid="{3AF859AE-40D4-43E5-9108-21B3B4D25308}">
+    <comment ref="AK5" authorId="0" shapeId="0" xr:uid="{3AF859AE-40D4-43E5-9108-21B3B4D25308}">
       <text>
         <r>
           <rPr>
@@ -531,7 +518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM5" authorId="0" shapeId="0" xr:uid="{3F56533D-8B5C-4B40-9B83-65A1EC85E6CF}">
+    <comment ref="AL5" authorId="0" shapeId="0" xr:uid="{3F56533D-8B5C-4B40-9B83-65A1EC85E6CF}">
       <text>
         <r>
           <rPr>
@@ -544,7 +531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN5" authorId="1" shapeId="0" xr:uid="{570053E9-DD91-491F-B7BD-CF22A33BFAF8}">
+    <comment ref="AM5" authorId="1" shapeId="0" xr:uid="{570053E9-DD91-491F-B7BD-CF22A33BFAF8}">
       <text>
         <r>
           <rPr>
@@ -558,7 +545,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO5" authorId="1" shapeId="0" xr:uid="{A68E7A56-1370-4015-A613-369D3367675B}">
+    <comment ref="AN5" authorId="1" shapeId="0" xr:uid="{A68E7A56-1370-4015-A613-369D3367675B}">
       <text>
         <r>
           <rPr>
@@ -2862,7 +2849,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="420">
   <si>
     <t>*sample_name</t>
   </si>
@@ -3998,9 +3985,6 @@
     <t>ncbi-spuid</t>
   </si>
   <si>
-    <t>ncbi-spuid_namespace</t>
-  </si>
-  <si>
     <t>ncbi-bioproject</t>
   </si>
   <si>
@@ -4113,9 +4097,6 @@
   </si>
   <si>
     <t>gff_path</t>
-  </si>
-  <si>
-    <t>VARV_TEST</t>
   </si>
   <si>
     <t>assets/sample_annotations/variola/VARV_RZ10_3587_reformatted.gff</t>
@@ -5359,52 +5340,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED69788A-8BB8-4090-9E16-DE7573DAAD2C}">
-  <dimension ref="A1:BD44"/>
+  <dimension ref="A1:BC44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AP5" sqref="AP5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="24.1796875" customWidth="1"/>
-    <col min="6" max="6" width="23.453125" customWidth="1"/>
-    <col min="7" max="44" width="27" customWidth="1"/>
+    <col min="1" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="24.1796875" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" customWidth="1"/>
+    <col min="6" max="43" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="18.75" customHeight="1">
+    <row r="1" spans="1:55" ht="18.75" customHeight="1">
       <c r="A1" t="s">
         <v>321</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="M1" s="36" t="s">
+      <c r="E1" s="37"/>
+      <c r="L1" s="36" t="s">
         <v>317</v>
       </c>
+      <c r="M1" s="37"/>
       <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="Z1" s="36" t="s">
+      <c r="Y1" s="36" t="s">
         <v>320</v>
       </c>
-      <c r="AD1" s="36" t="s">
+      <c r="AC1" s="36" t="s">
         <v>322</v>
       </c>
+      <c r="AE1" s="38"/>
       <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
+      <c r="AG1" s="36" t="s">
+        <v>325</v>
+      </c>
       <c r="AH1" s="36" t="s">
-        <v>325</v>
-      </c>
-      <c r="AI1" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="AS1" s="36" t="s">
+      <c r="AR1" s="36" t="s">
         <v>324</v>
       </c>
+      <c r="BA1" s="38"/>
       <c r="BB1" s="38"/>
       <c r="BC1" s="38"/>
-      <c r="BD1" s="38"/>
-    </row>
-    <row r="2" spans="1:56" ht="18.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:55" ht="18.75" customHeight="1">
       <c r="A2" s="39" t="s">
         <v>370</v>
       </c>
@@ -5415,16 +5396,16 @@
         <v>378</v>
       </c>
       <c r="D2" s="39" t="s">
+        <v>409</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>412</v>
+      </c>
+      <c r="G2" s="40" t="s">
         <v>379</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>410</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>386</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>413</v>
       </c>
       <c r="H2" s="40" t="s">
         <v>380</v>
@@ -5438,129 +5419,129 @@
       <c r="K2" s="40" t="s">
         <v>383</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="M2" s="40" t="s">
         <v>384</v>
       </c>
-      <c r="M2" s="41" t="s">
-        <v>371</v>
-      </c>
-      <c r="N2" s="40" t="s">
-        <v>385</v>
-      </c>
-      <c r="O2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="39" t="s">
+        <v>374</v>
+      </c>
       <c r="P2" s="39" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="R2" s="39" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="S2" s="39" t="s">
-        <v>373</v>
+        <v>12</v>
       </c>
       <c r="T2" s="39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U2" s="39" t="s">
-        <v>13</v>
+        <v>326</v>
       </c>
       <c r="V2" s="39" t="s">
-        <v>326</v>
+        <v>73</v>
       </c>
       <c r="W2" s="39" t="s">
-        <v>73</v>
+        <v>327</v>
       </c>
       <c r="X2" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y2" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="41" t="s">
+      <c r="Y2" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="Z2" s="39" t="s">
         <v>414</v>
       </c>
       <c r="AA2" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC2" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD2" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE2" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF2" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="AG2" s="43" t="s">
         <v>415</v>
       </c>
-      <c r="AB2" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC2" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD2" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE2" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF2" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG2" s="43" t="s">
-        <v>392</v>
-      </c>
-      <c r="AH2" s="43" t="s">
-        <v>416</v>
+      <c r="AH2" s="41" t="s">
+        <v>2</v>
       </c>
       <c r="AI2" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ2" s="41" t="s">
         <v>19</v>
       </c>
+      <c r="AJ2" s="39" t="s">
+        <v>366</v>
+      </c>
       <c r="AK2" s="39" t="s">
-        <v>366</v>
+        <v>21</v>
       </c>
       <c r="AL2" s="39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM2" s="39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN2" s="39" t="s">
-        <v>23</v>
+        <v>318</v>
       </c>
       <c r="AO2" s="39" t="s">
-        <v>318</v>
+        <v>417</v>
       </c>
       <c r="AP2" s="39" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="AQ2" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS2" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT2" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="AU2" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV2" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="AW2" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="AX2" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="AY2" s="39" t="s">
+        <v>418</v>
+      </c>
+      <c r="AZ2" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA2" s="42" t="s">
         <v>387</v>
-      </c>
-      <c r="AR2" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="AS2" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT2" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="AU2" s="39" t="s">
-        <v>367</v>
-      </c>
-      <c r="AV2" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="AW2" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="AX2" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="AY2" s="39" t="s">
-        <v>319</v>
-      </c>
-      <c r="AZ2" s="39" t="s">
-        <v>420</v>
-      </c>
-      <c r="BA2" s="39" t="s">
-        <v>37</v>
       </c>
       <c r="BB2" s="42" t="s">
         <v>388</v>
@@ -5568,302 +5549,293 @@
       <c r="BC2" s="42" t="s">
         <v>389</v>
       </c>
-      <c r="BD2" s="42" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="3" spans="1:56">
+    </row>
+    <row r="3" spans="1:55">
       <c r="A3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E3" t="s">
+        <v>410</v>
+      </c>
+      <c r="F3" t="s">
         <v>396</v>
-      </c>
-      <c r="C3" t="s">
-        <v>417</v>
-      </c>
-      <c r="E3" t="s">
-        <v>412</v>
-      </c>
-      <c r="F3" t="s">
-        <v>411</v>
       </c>
       <c r="G3" t="s">
         <v>397</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>376</v>
+      </c>
+      <c r="R3" t="s">
         <v>398</v>
       </c>
-      <c r="M3" t="s">
+      <c r="S3" t="s">
+        <v>400</v>
+      </c>
+      <c r="T3" t="s">
+        <v>368</v>
+      </c>
+      <c r="W3" t="s">
+        <v>368</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>369</v>
+      </c>
+      <c r="AE3">
+        <v>247</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>403</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>416</v>
+      </c>
+      <c r="AH3" s="35" t="s">
+        <v>392</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>310</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>419</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>405</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55">
+      <c r="A4" t="s">
         <v>393</v>
       </c>
-      <c r="R3" t="s">
-        <v>376</v>
-      </c>
-      <c r="S3" t="s">
-        <v>399</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="B4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E4" t="s">
+        <v>410</v>
+      </c>
+      <c r="F4" t="s">
         <v>401</v>
-      </c>
-      <c r="U3" t="s">
-        <v>368</v>
-      </c>
-      <c r="X3" t="s">
-        <v>368</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AF3">
-        <v>247</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>404</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>418</v>
-      </c>
-      <c r="AI3" s="35" t="s">
-        <v>393</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>310</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>421</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>391</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>406</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:56">
-      <c r="A4" t="s">
-        <v>394</v>
-      </c>
-      <c r="B4" t="s">
-        <v>395</v>
-      </c>
-      <c r="C4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E4" t="s">
-        <v>412</v>
-      </c>
-      <c r="F4" t="s">
-        <v>411</v>
       </c>
       <c r="G4" t="s">
         <v>402</v>
       </c>
-      <c r="H4" t="s">
-        <v>403</v>
-      </c>
-      <c r="M4" t="s">
-        <v>394</v>
+      <c r="L4" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>376</v>
       </c>
       <c r="R4" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="S4" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="T4" t="s">
         <v>368</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>368</v>
       </c>
-      <c r="X4" t="s">
-        <v>368</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="AC4" t="s">
         <v>369</v>
       </c>
-      <c r="AF4">
+      <c r="AE4">
         <v>247</v>
       </c>
+      <c r="AF4" t="s">
+        <v>404</v>
+      </c>
       <c r="AG4" t="s">
-        <v>405</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>418</v>
-      </c>
-      <c r="AI4" s="35" t="s">
-        <v>394</v>
+        <v>416</v>
+      </c>
+      <c r="AH4" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>310</v>
       </c>
       <c r="AJ4" t="s">
-        <v>310</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AL4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN4" t="s">
         <v>61</v>
       </c>
+      <c r="AO4" t="s">
+        <v>419</v>
+      </c>
       <c r="AP4" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="AQ4" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="AR4" t="s">
-        <v>407</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="5" spans="1:56">
-      <c r="R5" s="28"/>
-      <c r="Y5" s="35"/>
-      <c r="AI5" s="28"/>
-    </row>
-    <row r="6" spans="1:56">
-      <c r="R6" s="28"/>
-      <c r="Y6" s="35"/>
-      <c r="AI6" s="28"/>
-    </row>
-    <row r="7" spans="1:56">
-      <c r="R7" s="28"/>
-      <c r="Y7" s="35"/>
-      <c r="AI7" s="28"/>
-    </row>
-    <row r="9" spans="1:56">
-      <c r="F9" s="37"/>
-    </row>
-    <row r="10" spans="1:56">
-      <c r="F10" s="37"/>
-    </row>
-    <row r="11" spans="1:56">
-      <c r="F11" s="37"/>
-    </row>
-    <row r="12" spans="1:56">
-      <c r="F12" s="37"/>
-    </row>
-    <row r="13" spans="1:56">
-      <c r="F13" s="37"/>
-    </row>
-    <row r="14" spans="1:56">
-      <c r="F14" s="37"/>
-    </row>
-    <row r="15" spans="1:56">
-      <c r="F15" s="37"/>
-    </row>
-    <row r="16" spans="1:56">
-      <c r="F16" s="37"/>
-    </row>
-    <row r="17" spans="6:6">
-      <c r="F17" s="37"/>
-    </row>
-    <row r="18" spans="6:6">
-      <c r="F18" s="37"/>
-    </row>
-    <row r="19" spans="6:6">
-      <c r="F19" s="37"/>
-    </row>
-    <row r="20" spans="6:6">
-      <c r="F20" s="37"/>
-    </row>
-    <row r="21" spans="6:6">
-      <c r="F21" s="37"/>
-    </row>
-    <row r="22" spans="6:6">
-      <c r="F22" s="37"/>
-    </row>
-    <row r="23" spans="6:6">
-      <c r="F23" s="37"/>
-    </row>
-    <row r="24" spans="6:6">
-      <c r="F24" s="37"/>
-    </row>
-    <row r="25" spans="6:6">
-      <c r="F25" s="37"/>
-    </row>
-    <row r="26" spans="6:6">
-      <c r="F26" s="37"/>
-    </row>
-    <row r="27" spans="6:6">
-      <c r="F27" s="37"/>
-    </row>
-    <row r="28" spans="6:6">
-      <c r="F28" s="37"/>
-    </row>
-    <row r="29" spans="6:6">
-      <c r="F29" s="37"/>
-    </row>
-    <row r="30" spans="6:6">
-      <c r="F30" s="37"/>
-    </row>
-    <row r="31" spans="6:6">
-      <c r="F31" s="37"/>
-    </row>
-    <row r="32" spans="6:6">
-      <c r="F32" s="37"/>
-    </row>
-    <row r="33" spans="6:6">
-      <c r="F33" s="37"/>
-    </row>
-    <row r="34" spans="6:6">
-      <c r="F34" s="37"/>
-    </row>
-    <row r="35" spans="6:6">
-      <c r="F35" s="37"/>
-    </row>
-    <row r="36" spans="6:6">
-      <c r="F36" s="37"/>
-    </row>
-    <row r="37" spans="6:6">
-      <c r="F37" s="37"/>
-    </row>
-    <row r="38" spans="6:6">
-      <c r="F38" s="37"/>
-    </row>
-    <row r="39" spans="6:6">
-      <c r="F39" s="37"/>
-    </row>
-    <row r="40" spans="6:6">
-      <c r="F40" s="37"/>
-    </row>
-    <row r="41" spans="6:6">
-      <c r="F41" s="37"/>
-    </row>
-    <row r="42" spans="6:6">
-      <c r="F42" s="37"/>
-    </row>
-    <row r="43" spans="6:6">
-      <c r="F43" s="37"/>
-    </row>
-    <row r="44" spans="6:6">
-      <c r="F44" s="37"/>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55">
+      <c r="Q5" s="28"/>
+      <c r="X5" s="35"/>
+      <c r="AH5" s="28"/>
+    </row>
+    <row r="6" spans="1:55">
+      <c r="Q6" s="28"/>
+      <c r="X6" s="35"/>
+      <c r="AH6" s="28"/>
+    </row>
+    <row r="7" spans="1:55">
+      <c r="Q7" s="28"/>
+      <c r="X7" s="35"/>
+      <c r="AH7" s="28"/>
+    </row>
+    <row r="9" spans="1:55">
+      <c r="E9" s="37"/>
+    </row>
+    <row r="10" spans="1:55">
+      <c r="E10" s="37"/>
+    </row>
+    <row r="11" spans="1:55">
+      <c r="E11" s="37"/>
+    </row>
+    <row r="12" spans="1:55">
+      <c r="E12" s="37"/>
+    </row>
+    <row r="13" spans="1:55">
+      <c r="E13" s="37"/>
+    </row>
+    <row r="14" spans="1:55">
+      <c r="E14" s="37"/>
+    </row>
+    <row r="15" spans="1:55">
+      <c r="E15" s="37"/>
+    </row>
+    <row r="16" spans="1:55">
+      <c r="E16" s="37"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="37"/>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="37"/>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="37"/>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="37"/>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="37"/>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="37"/>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="37"/>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="37"/>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="37"/>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="37"/>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="37"/>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="37"/>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" s="37"/>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" s="37"/>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" s="37"/>
+    </row>
+    <row r="32" spans="5:5">
+      <c r="E32" s="37"/>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" s="37"/>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="37"/>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="37"/>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" s="37"/>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" s="37"/>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" s="37"/>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" s="37"/>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" s="37"/>
+    </row>
+    <row r="41" spans="5:5">
+      <c r="E41" s="37"/>
+    </row>
+    <row r="42" spans="5:5">
+      <c r="E42" s="37"/>
+    </row>
+    <row r="43" spans="5:5">
+      <c r="E43" s="37"/>
+    </row>
+    <row r="44" spans="5:5">
+      <c r="E44" s="37"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM7 AD6:AD7 AN3:AN4" xr:uid="{E94CD281-9EAA-4F57-AE0B-4DBF756B8F3B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL6:AL7 AC6:AC7 AM3:AM4" xr:uid="{E94CD281-9EAA-4F57-AE0B-4DBF756B8F3B}">
       <formula1>"single,paired"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5876,31 +5848,31 @@
           <x14:formula1>
             <xm:f>'Library and Platform Names'!$J$87:$J$89</xm:f>
           </x14:formula1>
-          <xm:sqref>AI6:AI7</xm:sqref>
+          <xm:sqref>AH6:AH7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BCE2CE56-EE54-4F28-94FB-4386724E34D7}">
           <x14:formula1>
             <xm:f>'Library and Platform Names'!$A$51:$A$83</xm:f>
           </x14:formula1>
-          <xm:sqref>AL6:AL7 AC6:AC7 AM3:AM4</xm:sqref>
+          <xm:sqref>AK6:AK7 AB6:AB7 AL3:AL4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{056496BE-1007-40BB-8104-2AE7F65DC6BC}">
           <x14:formula1>
             <xm:f>'Library and Platform Names'!$A$40:$A$48</xm:f>
           </x14:formula1>
-          <xm:sqref>AK6:AK7 AB6:AB7 AL3:AL4</xm:sqref>
+          <xm:sqref>AJ6:AJ7 AA6:AA7 AK3:AK4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{74816595-F9E8-4088-AEE4-D45C47DB6D3A}">
           <x14:formula1>
             <xm:f>'Library and Platform Names'!$A$3:$A$37</xm:f>
           </x14:formula1>
-          <xm:sqref>AJ6:AJ7 AA6:AA7 AK3:AK4</xm:sqref>
+          <xm:sqref>AI6:AI7 Z6:Z7 AJ3:AJ4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8395FC48-4396-4B08-AFEB-CF7ED936973C}">
           <x14:formula1>
             <xm:f>'Library and Platform Names'!$C$87:$C$107</xm:f>
           </x14:formula1>
-          <xm:sqref>Z6:Z7 AJ3:AJ4</xm:sqref>
+          <xm:sqref>Y6:Y7 AI3:AI4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9661,15 +9633,48 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
@@ -9682,48 +9687,15 @@
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/sample_metadata/varv_test_metadata.xlsx
+++ b/assets/sample_metadata/varv_test_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\01.scripts\tostadas\assets\sample_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE12898-709E-4820-8C1C-540F7688157E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA6EDCD-0208-4054-ADB0-84D33383DAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3400" windowWidth="28800" windowHeight="12760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4600" yWindow="2390" windowWidth="20790" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VARV_Metadata" sheetId="9" r:id="rId1"/>
@@ -56,7 +56,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{080FDDC6-4BCA-45A8-9DD8-6A6CBD2B834D}">
+    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{17F66995-0056-4686-B6E7-2818CDBED7DC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pick from dropdown list, see "Library and Platform Names" sheet for details.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{080FDDC6-4BCA-45A8-9DD8-6A6CBD2B834D}">
       <text>
         <r>
           <rPr>
@@ -79,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{F70BA5C7-C026-4470-BB45-6E3CE66DF205}">
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{F70BA5C7-C026-4470-BB45-6E3CE66DF205}">
       <text>
         <r>
           <rPr>
@@ -92,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{21D5B7CA-0371-4BC6-B974-6581ECC36D9D}">
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{21D5B7CA-0371-4BC6-B974-6581ECC36D9D}">
       <text>
         <r>
           <rPr>
@@ -105,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{E07D66A0-9136-47C2-89F5-CAA6B0BF44F2}">
+    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{E07D66A0-9136-47C2-89F5-CAA6B0BF44F2}">
       <text>
         <r>
           <rPr>
@@ -120,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{AA27E836-F0DC-4760-9FEC-7B015070C3D9}">
+    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{AA27E836-F0DC-4760-9FEC-7B015070C3D9}">
       <text>
         <r>
           <rPr>
@@ -133,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{479975C4-9E7A-4A5E-BEC1-50C2BE1BA0B0}">
+    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{479975C4-9E7A-4A5E-BEC1-50C2BE1BA0B0}">
       <text>
         <r>
           <rPr>
@@ -146,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{85C6D79F-61C1-4D9E-98DF-35AB4E6A7ED3}">
+    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{85C6D79F-61C1-4D9E-98DF-35AB4E6A7ED3}">
       <text>
         <r>
           <rPr>
@@ -160,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{071785E7-56D9-4E87-B448-25FBCBCA0295}">
+    <comment ref="O5" authorId="0" shapeId="0" xr:uid="{071785E7-56D9-4E87-B448-25FBCBCA0295}">
       <text>
         <r>
           <rPr>
@@ -174,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O5" authorId="0" shapeId="0" xr:uid="{C3ED37C4-4FEC-41D0-9DBD-572EFB063300}">
+    <comment ref="P5" authorId="0" shapeId="0" xr:uid="{C3ED37C4-4FEC-41D0-9DBD-572EFB063300}">
       <text>
         <r>
           <rPr>
@@ -188,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P5" authorId="1" shapeId="0" xr:uid="{1EA2E6DE-8DE4-4B70-95A1-76B6F1DEBDF2}">
+    <comment ref="Q5" authorId="1" shapeId="0" xr:uid="{1EA2E6DE-8DE4-4B70-95A1-76B6F1DEBDF2}">
       <text>
         <r>
           <rPr>
@@ -202,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q5" authorId="0" shapeId="0" xr:uid="{D1FAF6B3-857C-41E2-9566-DBF0E60FF405}">
+    <comment ref="R5" authorId="0" shapeId="0" xr:uid="{D1FAF6B3-857C-41E2-9566-DBF0E60FF405}">
       <text>
         <r>
           <rPr>
@@ -216,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R5" authorId="1" shapeId="0" xr:uid="{6949FFB1-4FEB-42A2-A1D2-6EE3C2E2305C}">
+    <comment ref="S5" authorId="1" shapeId="0" xr:uid="{6949FFB1-4FEB-42A2-A1D2-6EE3C2E2305C}">
       <text>
         <r>
           <rPr>
@@ -230,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S5" authorId="1" shapeId="0" xr:uid="{FD378DB2-0BE6-410E-AEDB-F3A8DD679F80}">
+    <comment ref="T5" authorId="1" shapeId="0" xr:uid="{FD378DB2-0BE6-410E-AEDB-F3A8DD679F80}">
       <text>
         <r>
           <rPr>
@@ -245,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T5" authorId="1" shapeId="0" xr:uid="{2A019EB1-E062-45F8-B1CF-FB3255D8F3A8}">
+    <comment ref="U5" authorId="1" shapeId="0" xr:uid="{2A019EB1-E062-45F8-B1CF-FB3255D8F3A8}">
       <text>
         <r>
           <rPr>
@@ -259,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U5" authorId="0" shapeId="0" xr:uid="{4D7E8B39-EC3F-477C-9B4B-E13E0BA7AE43}">
+    <comment ref="V5" authorId="0" shapeId="0" xr:uid="{4D7E8B39-EC3F-477C-9B4B-E13E0BA7AE43}">
       <text>
         <r>
           <rPr>
@@ -272,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V5" authorId="0" shapeId="0" xr:uid="{BD5075ED-65F9-4D40-8419-E5756430BB70}">
+    <comment ref="W5" authorId="0" shapeId="0" xr:uid="{BD5075ED-65F9-4D40-8419-E5756430BB70}">
       <text>
         <r>
           <rPr>
@@ -285,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W5" authorId="1" shapeId="0" xr:uid="{3FE19B70-E33C-4212-AC6C-D1BDECEA7101}">
+    <comment ref="X5" authorId="1" shapeId="0" xr:uid="{3FE19B70-E33C-4212-AC6C-D1BDECEA7101}">
       <text>
         <r>
           <rPr>
@@ -298,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X5" authorId="0" shapeId="0" xr:uid="{EB946458-60DD-4E13-87AF-AA7A20D64262}">
+    <comment ref="Y5" authorId="0" shapeId="0" xr:uid="{EB946458-60DD-4E13-87AF-AA7A20D64262}">
       <text>
         <r>
           <rPr>
@@ -311,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y5" authorId="1" shapeId="0" xr:uid="{331CD19D-1C0D-46F9-9E0E-B800949A9D80}">
+    <comment ref="Z5" authorId="1" shapeId="0" xr:uid="{331CD19D-1C0D-46F9-9E0E-B800949A9D80}">
       <text>
         <r>
           <rPr>
@@ -325,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z5" authorId="0" shapeId="0" xr:uid="{DAF6A12C-64AB-4116-B4E1-F76FF76179A2}">
+    <comment ref="AA5" authorId="0" shapeId="0" xr:uid="{DAF6A12C-64AB-4116-B4E1-F76FF76179A2}">
       <text>
         <r>
           <rPr>
@@ -338,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA5" authorId="0" shapeId="0" xr:uid="{0A3D1826-42B6-40FA-8AB0-C855DB3FAEFC}">
+    <comment ref="AB5" authorId="0" shapeId="0" xr:uid="{0A3D1826-42B6-40FA-8AB0-C855DB3FAEFC}">
       <text>
         <r>
           <rPr>
@@ -351,7 +364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB5" authorId="0" shapeId="0" xr:uid="{B0BB772A-E4A7-4A85-AE1B-76B0AD3016B6}">
+    <comment ref="AC5" authorId="0" shapeId="0" xr:uid="{B0BB772A-E4A7-4A85-AE1B-76B0AD3016B6}">
       <text>
         <r>
           <rPr>
@@ -364,7 +377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC5" authorId="0" shapeId="0" xr:uid="{F9F1CD31-2220-4301-BF9D-28371B6EB082}">
+    <comment ref="AD5" authorId="0" shapeId="0" xr:uid="{F9F1CD31-2220-4301-BF9D-28371B6EB082}">
       <text>
         <r>
           <rPr>
@@ -377,7 +390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD5" authorId="1" shapeId="0" xr:uid="{EB388CCC-2DFF-497E-812C-0E7BE6B0319E}">
+    <comment ref="AE5" authorId="1" shapeId="0" xr:uid="{EB388CCC-2DFF-497E-812C-0E7BE6B0319E}">
       <text>
         <r>
           <rPr>
@@ -391,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE5" authorId="1" shapeId="0" xr:uid="{AC465281-B22D-4402-AAD5-D3BEC15677DC}">
+    <comment ref="AF5" authorId="1" shapeId="0" xr:uid="{AC465281-B22D-4402-AAD5-D3BEC15677DC}">
       <text>
         <r>
           <rPr>
@@ -424,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG5" authorId="1" shapeId="0" xr:uid="{F79A8E9C-C804-4281-A6FE-04B94CE39270}">
+    <comment ref="AH5" authorId="1" shapeId="0" xr:uid="{F79A8E9C-C804-4281-A6FE-04B94CE39270}">
       <text>
         <r>
           <rPr>
@@ -453,19 +466,6 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> R2 read file in compressed FASTQ format (*.fastq.gz)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AH5" authorId="1" shapeId="0" xr:uid="{17F66995-0056-4686-B6E7-2818CDBED7DC}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Pick from dropdown list, see "Library and Platform Names" sheet for details.</t>
         </r>
       </text>
     </comment>
@@ -2849,7 +2849,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="421">
   <si>
     <t>*sample_name</t>
   </si>
@@ -4109,6 +4109,9 @@
   </si>
   <si>
     <t>Not Provided</t>
+  </si>
+  <si>
+    <t>ncbi-spuid-sra</t>
   </si>
 </sst>
 </file>
@@ -5343,40 +5346,40 @@
   <dimension ref="A1:BC44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="24.1796875" customWidth="1"/>
-    <col min="5" max="5" width="23.453125" customWidth="1"/>
-    <col min="6" max="43" width="27" customWidth="1"/>
+    <col min="1" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" customWidth="1"/>
+    <col min="6" max="6" width="23.453125" customWidth="1"/>
+    <col min="7" max="43" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="18.75" customHeight="1">
       <c r="A1" t="s">
         <v>321</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="L1" s="36" t="s">
+      <c r="C1" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="F1" s="37"/>
+      <c r="M1" s="36" t="s">
         <v>317</v>
       </c>
-      <c r="M1" s="37"/>
       <c r="N1" s="37"/>
-      <c r="Y1" s="36" t="s">
+      <c r="O1" s="37"/>
+      <c r="Z1" s="36" t="s">
         <v>320</v>
       </c>
-      <c r="AC1" s="36" t="s">
+      <c r="AD1" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="AE1" s="38"/>
       <c r="AF1" s="38"/>
-      <c r="AG1" s="36" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="36" t="s">
         <v>325</v>
-      </c>
-      <c r="AH1" s="36" t="s">
-        <v>323</v>
       </c>
       <c r="AR1" s="36" t="s">
         <v>324</v>
@@ -5393,98 +5396,98 @@
         <v>377</v>
       </c>
       <c r="C2" s="39" t="s">
+        <v>420</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>378</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="E2" s="39" t="s">
         <v>409</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="F2" s="40" t="s">
         <v>385</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="G2" s="39" t="s">
         <v>412</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="H2" s="40" t="s">
         <v>379</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="I2" s="40" t="s">
         <v>380</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="J2" s="40" t="s">
         <v>381</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="K2" s="40" t="s">
         <v>382</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="L2" s="40" t="s">
         <v>383</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="M2" s="41" t="s">
         <v>371</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="N2" s="40" t="s">
         <v>384</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="40"/>
+      <c r="P2" s="39" t="s">
         <v>374</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="Q2" s="39" t="s">
         <v>375</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="R2" s="39" t="s">
         <v>372</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="S2" s="39" t="s">
         <v>373</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="T2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="39" t="s">
+      <c r="U2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="39" t="s">
+      <c r="V2" s="39" t="s">
         <v>326</v>
       </c>
-      <c r="V2" s="39" t="s">
+      <c r="W2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="W2" s="39" t="s">
+      <c r="X2" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="X2" s="39" t="s">
+      <c r="Y2" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="41" t="s">
+      <c r="Z2" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="Z2" s="39" t="s">
+      <c r="AA2" s="39" t="s">
         <v>414</v>
       </c>
-      <c r="AA2" s="39" t="s">
+      <c r="AB2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="39" t="s">
+      <c r="AC2" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="AC2" s="41" t="s">
+      <c r="AD2" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AE2" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="AE2" s="42" t="s">
+      <c r="AF2" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="43" t="s">
+      <c r="AG2" s="43" t="s">
         <v>391</v>
       </c>
-      <c r="AG2" s="43" t="s">
+      <c r="AH2" s="43" t="s">
         <v>415</v>
-      </c>
-      <c r="AH2" s="41" t="s">
-        <v>2</v>
       </c>
       <c r="AI2" s="41" t="s">
         <v>19</v>
@@ -5557,50 +5560,50 @@
       <c r="B3" t="s">
         <v>395</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="35" t="s">
+        <v>392</v>
+      </c>
+      <c r="E3" t="s">
         <v>411</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>410</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>396</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>397</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>392</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>376</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>398</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>400</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>368</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>368</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>369</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>247</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>403</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>416</v>
-      </c>
-      <c r="AH3" s="35" t="s">
-        <v>392</v>
       </c>
       <c r="AI3" t="s">
         <v>310</v>
@@ -5637,50 +5640,50 @@
       <c r="B4" t="s">
         <v>394</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="E4" t="s">
         <v>411</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>410</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>401</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>402</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>393</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>376</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>399</v>
-      </c>
-      <c r="S4" t="s">
-        <v>368</v>
       </c>
       <c r="T4" t="s">
         <v>368</v>
       </c>
-      <c r="W4" t="s">
+      <c r="U4" t="s">
         <v>368</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="X4" t="s">
+        <v>368</v>
+      </c>
+      <c r="AD4" t="s">
         <v>369</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>247</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>404</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>416</v>
-      </c>
-      <c r="AH4" s="35" t="s">
-        <v>393</v>
       </c>
       <c r="AI4" t="s">
         <v>310</v>
@@ -5711,131 +5714,131 @@
       </c>
     </row>
     <row r="5" spans="1:55">
-      <c r="Q5" s="28"/>
-      <c r="X5" s="35"/>
-      <c r="AH5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="Y5" s="35"/>
     </row>
     <row r="6" spans="1:55">
-      <c r="Q6" s="28"/>
-      <c r="X6" s="35"/>
-      <c r="AH6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="Y6" s="35"/>
     </row>
     <row r="7" spans="1:55">
-      <c r="Q7" s="28"/>
-      <c r="X7" s="35"/>
-      <c r="AH7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="Y7" s="35"/>
     </row>
     <row r="9" spans="1:55">
-      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" spans="1:55">
-      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" spans="1:55">
-      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="1:55">
-      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:55">
-      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" spans="1:55">
-      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" spans="1:55">
-      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
     </row>
     <row r="16" spans="1:55">
-      <c r="E16" s="37"/>
-    </row>
-    <row r="17" spans="5:5">
-      <c r="E17" s="37"/>
-    </row>
-    <row r="18" spans="5:5">
-      <c r="E18" s="37"/>
-    </row>
-    <row r="19" spans="5:5">
-      <c r="E19" s="37"/>
-    </row>
-    <row r="20" spans="5:5">
-      <c r="E20" s="37"/>
-    </row>
-    <row r="21" spans="5:5">
-      <c r="E21" s="37"/>
-    </row>
-    <row r="22" spans="5:5">
-      <c r="E22" s="37"/>
-    </row>
-    <row r="23" spans="5:5">
-      <c r="E23" s="37"/>
-    </row>
-    <row r="24" spans="5:5">
-      <c r="E24" s="37"/>
-    </row>
-    <row r="25" spans="5:5">
-      <c r="E25" s="37"/>
-    </row>
-    <row r="26" spans="5:5">
-      <c r="E26" s="37"/>
-    </row>
-    <row r="27" spans="5:5">
-      <c r="E27" s="37"/>
-    </row>
-    <row r="28" spans="5:5">
-      <c r="E28" s="37"/>
-    </row>
-    <row r="29" spans="5:5">
-      <c r="E29" s="37"/>
-    </row>
-    <row r="30" spans="5:5">
-      <c r="E30" s="37"/>
-    </row>
-    <row r="31" spans="5:5">
-      <c r="E31" s="37"/>
-    </row>
-    <row r="32" spans="5:5">
-      <c r="E32" s="37"/>
-    </row>
-    <row r="33" spans="5:5">
-      <c r="E33" s="37"/>
-    </row>
-    <row r="34" spans="5:5">
-      <c r="E34" s="37"/>
-    </row>
-    <row r="35" spans="5:5">
-      <c r="E35" s="37"/>
-    </row>
-    <row r="36" spans="5:5">
-      <c r="E36" s="37"/>
-    </row>
-    <row r="37" spans="5:5">
-      <c r="E37" s="37"/>
-    </row>
-    <row r="38" spans="5:5">
-      <c r="E38" s="37"/>
-    </row>
-    <row r="39" spans="5:5">
-      <c r="E39" s="37"/>
-    </row>
-    <row r="40" spans="5:5">
-      <c r="E40" s="37"/>
-    </row>
-    <row r="41" spans="5:5">
-      <c r="E41" s="37"/>
-    </row>
-    <row r="42" spans="5:5">
-      <c r="E42" s="37"/>
-    </row>
-    <row r="43" spans="5:5">
-      <c r="E43" s="37"/>
-    </row>
-    <row r="44" spans="5:5">
-      <c r="E44" s="37"/>
+      <c r="F16" s="37"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="37"/>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="37"/>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="37"/>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="37"/>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="37"/>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" s="37"/>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23" s="37"/>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24" s="37"/>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25" s="37"/>
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26" s="37"/>
+    </row>
+    <row r="27" spans="6:6">
+      <c r="F27" s="37"/>
+    </row>
+    <row r="28" spans="6:6">
+      <c r="F28" s="37"/>
+    </row>
+    <row r="29" spans="6:6">
+      <c r="F29" s="37"/>
+    </row>
+    <row r="30" spans="6:6">
+      <c r="F30" s="37"/>
+    </row>
+    <row r="31" spans="6:6">
+      <c r="F31" s="37"/>
+    </row>
+    <row r="32" spans="6:6">
+      <c r="F32" s="37"/>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="37"/>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" s="37"/>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" s="37"/>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="37"/>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="37"/>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" s="37"/>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39" s="37"/>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="37"/>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="37"/>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" s="37"/>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="37"/>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="37"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL6:AL7 AC6:AC7 AM3:AM4" xr:uid="{E94CD281-9EAA-4F57-AE0B-4DBF756B8F3B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL6:AL7 AD6:AD7 AM3:AM4" xr:uid="{E94CD281-9EAA-4F57-AE0B-4DBF756B8F3B}">
       <formula1>"single,paired"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5848,31 +5851,31 @@
           <x14:formula1>
             <xm:f>'Library and Platform Names'!$J$87:$J$89</xm:f>
           </x14:formula1>
-          <xm:sqref>AH6:AH7</xm:sqref>
+          <xm:sqref>C6:C7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BCE2CE56-EE54-4F28-94FB-4386724E34D7}">
           <x14:formula1>
             <xm:f>'Library and Platform Names'!$A$51:$A$83</xm:f>
           </x14:formula1>
-          <xm:sqref>AK6:AK7 AB6:AB7 AL3:AL4</xm:sqref>
+          <xm:sqref>AK6:AK7 AC6:AC7 AL3:AL4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{056496BE-1007-40BB-8104-2AE7F65DC6BC}">
           <x14:formula1>
             <xm:f>'Library and Platform Names'!$A$40:$A$48</xm:f>
           </x14:formula1>
-          <xm:sqref>AJ6:AJ7 AA6:AA7 AK3:AK4</xm:sqref>
+          <xm:sqref>AJ6:AJ7 AB6:AB7 AK3:AK4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{74816595-F9E8-4088-AEE4-D45C47DB6D3A}">
           <x14:formula1>
             <xm:f>'Library and Platform Names'!$A$3:$A$37</xm:f>
           </x14:formula1>
-          <xm:sqref>AI6:AI7 Z6:Z7 AJ3:AJ4</xm:sqref>
+          <xm:sqref>AI6:AI7 AA6:AA7 AJ3:AJ4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8395FC48-4396-4B08-AFEB-CF7ED936973C}">
           <x14:formula1>
             <xm:f>'Library and Platform Names'!$C$87:$C$107</xm:f>
           </x14:formula1>
-          <xm:sqref>Y6:Y7 AI3:AI4</xm:sqref>
+          <xm:sqref>Z6:Z7 AI3:AI4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9633,12 +9636,51 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -9651,51 +9693,12 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
